--- a/Books/ilce.xlsx
+++ b/Books/ilce.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\source\repos\DalistoTask2\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D94C86-ABD4-410F-936F-0660F0F9BEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F8AFFA-9E9D-415B-B4A7-7FDC5C92E42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="1140">
   <si>
     <t>SAMSUN</t>
   </si>
@@ -3442,6 +3442,9 @@
   </si>
   <si>
     <t>CityName</t>
+  </si>
+  <si>
+    <t>19 MAYIS</t>
   </si>
 </sst>
 </file>
@@ -3479,7 +3482,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3763,16 +3766,17 @@
   <dimension ref="A1:B1061"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A1039" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="17.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1137</v>
       </c>
       <c r="B1" t="s">
@@ -3780,15 +3784,15 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>44700</v>
+      <c r="A2" s="1" t="s">
+        <v>1139</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -3796,7 +3800,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -3804,7 +3808,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
@@ -3812,7 +3816,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
@@ -3820,7 +3824,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
@@ -3828,7 +3832,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
@@ -3836,7 +3840,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
@@ -3844,7 +3848,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
@@ -3852,7 +3856,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
@@ -3860,7 +3864,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
@@ -3868,7 +3872,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
@@ -3876,7 +3880,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
@@ -3884,7 +3888,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B15" t="s">
@@ -3892,7 +3896,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B16" t="s">
@@ -3900,7 +3904,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B17" t="s">
@@ -3908,7 +3912,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
@@ -3916,7 +3920,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B19" t="s">
@@ -3924,7 +3928,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B20" t="s">
@@ -3932,7 +3936,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B21" t="s">
@@ -3940,7 +3944,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B22" t="s">
@@ -3948,7 +3952,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B23" t="s">
@@ -3956,7 +3960,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B24" t="s">
@@ -3964,7 +3968,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B25" t="s">
@@ -3972,7 +3976,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B26" t="s">
@@ -3980,7 +3984,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B27" t="s">
@@ -3988,7 +3992,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B28" t="s">
@@ -3996,7 +4000,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B29" t="s">
@@ -4004,7 +4008,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B30" t="s">
@@ -4012,7 +4016,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B31" t="s">
@@ -4020,7 +4024,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B32" t="s">
@@ -4028,7 +4032,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B33" t="s">
@@ -4036,7 +4040,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B34" t="s">
@@ -4044,7 +4048,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B35" t="s">
@@ -4052,7 +4056,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B36" t="s">
@@ -4060,7 +4064,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B37" t="s">
@@ -4068,7 +4072,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B38" t="s">
@@ -4076,7 +4080,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B39" t="s">
@@ -4084,7 +4088,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B40" t="s">
@@ -4092,7 +4096,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B41" t="s">
@@ -4100,7 +4104,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B42" t="s">
@@ -4108,7 +4112,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B43" t="s">
@@ -4116,7 +4120,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B44" t="s">
@@ -4124,7 +4128,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B45" t="s">
@@ -4132,7 +4136,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B46" t="s">
@@ -4140,7 +4144,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B47" t="s">
@@ -4148,7 +4152,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B48" t="s">
@@ -4156,7 +4160,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B49" t="s">
@@ -4164,7 +4168,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B50" t="s">
@@ -4172,7 +4176,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B51" t="s">
@@ -4180,7 +4184,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B52" t="s">
@@ -4188,7 +4192,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B53" t="s">
@@ -4196,7 +4200,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B54" t="s">
@@ -4204,7 +4208,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B55" t="s">
@@ -4212,7 +4216,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B56" t="s">
@@ -4220,7 +4224,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B57" t="s">
@@ -4228,7 +4232,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B58" t="s">
@@ -4236,7 +4240,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B59" t="s">
@@ -4244,7 +4248,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B60" t="s">
@@ -4252,7 +4256,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B61" t="s">
@@ -4260,7 +4264,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B62" t="s">
@@ -4268,7 +4272,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B63" t="s">
@@ -4276,7 +4280,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B64" t="s">
@@ -4284,7 +4288,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B65" t="s">
@@ -4292,7 +4296,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B66" t="s">
@@ -4300,7 +4304,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B67" t="s">
@@ -4308,7 +4312,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B68" t="s">
@@ -4316,7 +4320,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B69" t="s">
@@ -4324,7 +4328,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B70" t="s">
@@ -4332,7 +4336,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B71" t="s">
@@ -4340,7 +4344,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="A72" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B72" t="s">
@@ -4348,7 +4352,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="A73" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B73" t="s">
@@ -4356,7 +4360,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="A74" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B74" t="s">
@@ -4364,7 +4368,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="A75" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B75" t="s">
@@ -4372,7 +4376,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="A76" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B76" t="s">
@@ -4380,7 +4384,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="A77" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B77" t="s">
@@ -4388,7 +4392,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="A78" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B78" t="s">
@@ -4396,7 +4400,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="A79" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B79" t="s">
@@ -4404,7 +4408,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="A80" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B80" t="s">
@@ -4412,7 +4416,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="A81" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B81" t="s">
@@ -4420,7 +4424,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="A82" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B82" t="s">
@@ -4428,7 +4432,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="A83" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B83" t="s">
@@ -4436,7 +4440,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="A84" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B84" t="s">
@@ -4444,7 +4448,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="A85" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B85" t="s">
@@ -4452,7 +4456,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="A86" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B86" t="s">
@@ -4460,7 +4464,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="A87" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B87" t="s">
@@ -4468,7 +4472,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="A88" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B88" t="s">
@@ -4476,7 +4480,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="A89" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B89" t="s">
@@ -4484,7 +4488,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="A90" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B90" t="s">
@@ -4492,7 +4496,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="A91" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B91" t="s">
@@ -4500,7 +4504,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="A92" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B92" t="s">
@@ -4508,7 +4512,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="A93" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B93" t="s">
@@ -4516,7 +4520,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="A94" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B94" t="s">
@@ -4524,7 +4528,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="A95" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B95" t="s">
@@ -4532,7 +4536,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="A96" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B96" t="s">
@@ -4540,7 +4544,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B97" t="s">
@@ -4548,7 +4552,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B98" t="s">
@@ -4556,7 +4560,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B99" t="s">
@@ -4564,7 +4568,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B100" t="s">
@@ -4572,7 +4576,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="A101" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B101" t="s">
@@ -4580,7 +4584,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="A102" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B102" t="s">
@@ -4588,7 +4592,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="A103" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B103" t="s">
@@ -4596,7 +4600,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="A104" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B104" t="s">
@@ -4604,7 +4608,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="A105" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B105" t="s">
@@ -4612,7 +4616,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="A106" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B106" t="s">
@@ -4620,7 +4624,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="A107" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B107" t="s">
@@ -4628,7 +4632,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="A108" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B108" t="s">
@@ -4636,7 +4640,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="A109" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B109" t="s">
@@ -4644,7 +4648,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+      <c r="A110" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B110" t="s">
@@ -4652,7 +4656,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="A111" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B111" t="s">
@@ -4660,7 +4664,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="A112" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B112" t="s">
@@ -4668,7 +4672,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+      <c r="A113" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B113" t="s">
@@ -4676,7 +4680,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+      <c r="A114" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B114" t="s">
@@ -4684,7 +4688,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="A115" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B115" t="s">
@@ -4692,7 +4696,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+      <c r="A116" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B116" t="s">
@@ -4700,7 +4704,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+      <c r="A117" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B117" t="s">
@@ -4708,7 +4712,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+      <c r="A118" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B118" t="s">
@@ -4716,7 +4720,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="A119" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B119" t="s">
@@ -4724,7 +4728,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+      <c r="A120" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B120" t="s">
@@ -4732,7 +4736,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="A121" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B121" t="s">
@@ -4740,7 +4744,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="A122" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B122" t="s">
@@ -4748,7 +4752,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="A123" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B123" t="s">
@@ -4756,7 +4760,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+      <c r="A124" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B124" t="s">
@@ -4764,7 +4768,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="A125" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B125" t="s">
@@ -4772,7 +4776,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="A126" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B126" t="s">
@@ -4780,7 +4784,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="A127" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B127" t="s">
@@ -4788,7 +4792,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+      <c r="A128" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B128" t="s">
@@ -4796,7 +4800,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+      <c r="A129" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B129" t="s">
@@ -4804,7 +4808,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+      <c r="A130" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B130" t="s">
@@ -4812,7 +4816,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+      <c r="A131" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B131" t="s">
@@ -4820,7 +4824,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+      <c r="A132" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B132" t="s">
@@ -4828,7 +4832,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+      <c r="A133" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B133" t="s">
@@ -4836,7 +4840,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+      <c r="A134" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B134" t="s">
@@ -4844,7 +4848,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+      <c r="A135" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B135" t="s">
@@ -4852,7 +4856,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+      <c r="A136" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B136" t="s">
@@ -4860,7 +4864,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+      <c r="A137" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B137" t="s">
@@ -4868,7 +4872,7 @@
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+      <c r="A138" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B138" t="s">
@@ -4876,7 +4880,7 @@
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+      <c r="A139" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B139" t="s">
@@ -4884,7 +4888,7 @@
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+      <c r="A140" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B140" t="s">
@@ -4892,7 +4896,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+      <c r="A141" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B141" t="s">
@@ -4900,7 +4904,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+      <c r="A142" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B142" t="s">
@@ -4908,7 +4912,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+      <c r="A143" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B143" t="s">
@@ -4916,7 +4920,7 @@
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+      <c r="A144" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B144" t="s">
@@ -4924,7 +4928,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+      <c r="A145" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B145" t="s">
@@ -4932,7 +4936,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+      <c r="A146" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B146" t="s">
@@ -4940,7 +4944,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+      <c r="A147" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B147" t="s">
@@ -4948,7 +4952,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+      <c r="A148" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B148" t="s">
@@ -4956,7 +4960,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+      <c r="A149" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B149" t="s">
@@ -4964,7 +4968,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+      <c r="A150" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B150" t="s">
@@ -4972,7 +4976,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+      <c r="A151" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B151" t="s">
@@ -4980,7 +4984,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+      <c r="A152" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B152" t="s">
@@ -4988,7 +4992,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+      <c r="A153" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B153" t="s">
@@ -4996,7 +5000,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+      <c r="A154" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B154" t="s">
@@ -5004,7 +5008,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+      <c r="A155" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B155" t="s">
@@ -5012,7 +5016,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+      <c r="A156" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B156" t="s">
@@ -5020,7 +5024,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+      <c r="A157" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B157" t="s">
@@ -5028,7 +5032,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+      <c r="A158" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B158" t="s">
@@ -5036,7 +5040,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+      <c r="A159" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B159" t="s">
@@ -5044,7 +5048,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+      <c r="A160" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B160" t="s">
@@ -5052,7 +5056,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+      <c r="A161" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B161" t="s">
@@ -5060,7 +5064,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+      <c r="A162" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B162" t="s">
@@ -5068,7 +5072,7 @@
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+      <c r="A163" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B163" t="s">
@@ -5076,7 +5080,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+      <c r="A164" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B164" t="s">
@@ -5084,7 +5088,7 @@
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+      <c r="A165" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B165" t="s">
@@ -5092,7 +5096,7 @@
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+      <c r="A166" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B166" t="s">
@@ -5100,7 +5104,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+      <c r="A167" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B167" t="s">
@@ -5108,7 +5112,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+      <c r="A168" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B168" t="s">
@@ -5116,7 +5120,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+      <c r="A169" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B169" t="s">
@@ -5124,7 +5128,7 @@
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+      <c r="A170" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B170" t="s">
@@ -5132,7 +5136,7 @@
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+      <c r="A171" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B171" t="s">
@@ -5140,7 +5144,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+      <c r="A172" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B172" t="s">
@@ -5148,7 +5152,7 @@
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+      <c r="A173" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B173" t="s">
@@ -5156,7 +5160,7 @@
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+      <c r="A174" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B174" t="s">
@@ -5164,7 +5168,7 @@
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+      <c r="A175" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B175" t="s">
@@ -5172,7 +5176,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+      <c r="A176" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B176" t="s">
@@ -5180,7 +5184,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+      <c r="A177" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B177" t="s">
@@ -5188,7 +5192,7 @@
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+      <c r="A178" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B178" t="s">
@@ -5196,7 +5200,7 @@
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+      <c r="A179" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B179" t="s">
@@ -5204,7 +5208,7 @@
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
+      <c r="A180" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B180" t="s">
@@ -5212,7 +5216,7 @@
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
+      <c r="A181" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B181" t="s">
@@ -5220,7 +5224,7 @@
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+      <c r="A182" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B182" t="s">
@@ -5228,7 +5232,7 @@
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
+      <c r="A183" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B183" t="s">
@@ -5236,7 +5240,7 @@
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+      <c r="A184" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B184" t="s">
@@ -5244,7 +5248,7 @@
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+      <c r="A185" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B185" t="s">
@@ -5252,7 +5256,7 @@
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
+      <c r="A186" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B186" t="s">
@@ -5260,7 +5264,7 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
+      <c r="A187" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B187" t="s">
@@ -5268,7 +5272,7 @@
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
+      <c r="A188" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B188" t="s">
@@ -5276,7 +5280,7 @@
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
+      <c r="A189" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B189" t="s">
@@ -5284,7 +5288,7 @@
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
+      <c r="A190" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B190" t="s">
@@ -5292,7 +5296,7 @@
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
+      <c r="A191" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B191" t="s">
@@ -5300,7 +5304,7 @@
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
+      <c r="A192" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B192" t="s">
@@ -5308,7 +5312,7 @@
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+      <c r="A193" s="1" t="s">
         <v>260</v>
       </c>
       <c r="B193" t="s">
@@ -5316,7 +5320,7 @@
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+      <c r="A194" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B194" t="s">
@@ -5324,7 +5328,7 @@
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+      <c r="A195" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B195" t="s">
@@ -5332,7 +5336,7 @@
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
+      <c r="A196" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B196" t="s">
@@ -5340,7 +5344,7 @@
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
+      <c r="A197" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B197" t="s">
@@ -5348,7 +5352,7 @@
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+      <c r="A198" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B198" t="s">
@@ -5356,7 +5360,7 @@
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
+      <c r="A199" s="1" t="s">
         <v>266</v>
       </c>
       <c r="B199" t="s">
@@ -5364,7 +5368,7 @@
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
+      <c r="A200" s="1" t="s">
         <v>267</v>
       </c>
       <c r="B200" t="s">
@@ -5372,7 +5376,7 @@
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
+      <c r="A201" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B201" t="s">
@@ -5380,7 +5384,7 @@
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
+      <c r="A202" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B202" t="s">
@@ -5388,7 +5392,7 @@
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
+      <c r="A203" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B203" t="s">
@@ -5396,7 +5400,7 @@
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+      <c r="A204" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B204" t="s">
@@ -5404,7 +5408,7 @@
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
+      <c r="A205" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B205" t="s">
@@ -5412,7 +5416,7 @@
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+      <c r="A206" s="1" t="s">
         <v>273</v>
       </c>
       <c r="B206" t="s">
@@ -5420,7 +5424,7 @@
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
+      <c r="A207" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B207" t="s">
@@ -5428,7 +5432,7 @@
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
+      <c r="A208" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B208" t="s">
@@ -5436,7 +5440,7 @@
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+      <c r="A209" s="1" t="s">
         <v>277</v>
       </c>
       <c r="B209" t="s">
@@ -5444,7 +5448,7 @@
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+      <c r="A210" s="1" t="s">
         <v>278</v>
       </c>
       <c r="B210" t="s">
@@ -5452,7 +5456,7 @@
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+      <c r="A211" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B211" t="s">
@@ -5460,7 +5464,7 @@
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+      <c r="A212" s="1" t="s">
         <v>280</v>
       </c>
       <c r="B212" t="s">
@@ -5468,7 +5472,7 @@
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+      <c r="A213" s="1" t="s">
         <v>281</v>
       </c>
       <c r="B213" t="s">
@@ -5476,7 +5480,7 @@
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+      <c r="A214" s="1" t="s">
         <v>283</v>
       </c>
       <c r="B214" t="s">
@@ -5484,7 +5488,7 @@
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
+      <c r="A215" s="1" t="s">
         <v>284</v>
       </c>
       <c r="B215" t="s">
@@ -5492,7 +5496,7 @@
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
+      <c r="A216" s="1" t="s">
         <v>285</v>
       </c>
       <c r="B216" t="s">
@@ -5500,7 +5504,7 @@
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
+      <c r="A217" s="1" t="s">
         <v>286</v>
       </c>
       <c r="B217" t="s">
@@ -5508,7 +5512,7 @@
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
+      <c r="A218" s="1" t="s">
         <v>287</v>
       </c>
       <c r="B218" t="s">
@@ -5516,7 +5520,7 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
+      <c r="A219" s="1" t="s">
         <v>288</v>
       </c>
       <c r="B219" t="s">
@@ -5524,7 +5528,7 @@
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
+      <c r="A220" s="1" t="s">
         <v>289</v>
       </c>
       <c r="B220" t="s">
@@ -5532,7 +5536,7 @@
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
+      <c r="A221" s="1" t="s">
         <v>290</v>
       </c>
       <c r="B221" t="s">
@@ -5540,7 +5544,7 @@
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
+      <c r="A222" s="1" t="s">
         <v>290</v>
       </c>
       <c r="B222" t="s">
@@ -5548,7 +5552,7 @@
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
+      <c r="A223" s="1" t="s">
         <v>291</v>
       </c>
       <c r="B223" t="s">
@@ -5556,7 +5560,7 @@
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
+      <c r="A224" s="1" t="s">
         <v>292</v>
       </c>
       <c r="B224" t="s">
@@ -5564,7 +5568,7 @@
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
+      <c r="A225" s="1" t="s">
         <v>293</v>
       </c>
       <c r="B225" t="s">
@@ -5572,7 +5576,7 @@
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
+      <c r="A226" s="1" t="s">
         <v>294</v>
       </c>
       <c r="B226" t="s">
@@ -5580,7 +5584,7 @@
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
+      <c r="A227" s="1" t="s">
         <v>295</v>
       </c>
       <c r="B227" t="s">
@@ -5588,7 +5592,7 @@
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
+      <c r="A228" s="1" t="s">
         <v>296</v>
       </c>
       <c r="B228" t="s">
@@ -5596,7 +5600,7 @@
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
+      <c r="A229" s="1" t="s">
         <v>297</v>
       </c>
       <c r="B229" t="s">
@@ -5604,7 +5608,7 @@
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
+      <c r="A230" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B230" t="s">
@@ -5612,7 +5616,7 @@
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
+      <c r="A231" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B231" t="s">
@@ -5620,7 +5624,7 @@
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
+      <c r="A232" s="1" t="s">
         <v>300</v>
       </c>
       <c r="B232" t="s">
@@ -5628,7 +5632,7 @@
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
+      <c r="A233" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B233" t="s">
@@ -5636,7 +5640,7 @@
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
+      <c r="A234" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B234" t="s">
@@ -5644,7 +5648,7 @@
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
+      <c r="A235" s="1" t="s">
         <v>303</v>
       </c>
       <c r="B235" t="s">
@@ -5652,7 +5656,7 @@
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
+      <c r="A236" s="1" t="s">
         <v>304</v>
       </c>
       <c r="B236" t="s">
@@ -5660,7 +5664,7 @@
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
+      <c r="A237" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B237" t="s">
@@ -5668,7 +5672,7 @@
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
+      <c r="A238" s="1" t="s">
         <v>306</v>
       </c>
       <c r="B238" t="s">
@@ -5676,7 +5680,7 @@
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
+      <c r="A239" s="1" t="s">
         <v>307</v>
       </c>
       <c r="B239" t="s">
@@ -5684,7 +5688,7 @@
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
+      <c r="A240" s="1" t="s">
         <v>308</v>
       </c>
       <c r="B240" t="s">
@@ -5692,7 +5696,7 @@
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
+      <c r="A241" s="1" t="s">
         <v>309</v>
       </c>
       <c r="B241" t="s">
@@ -5700,7 +5704,7 @@
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
+      <c r="A242" s="1" t="s">
         <v>310</v>
       </c>
       <c r="B242" t="s">
@@ -5708,7 +5712,7 @@
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
+      <c r="A243" s="1" t="s">
         <v>311</v>
       </c>
       <c r="B243" t="s">
@@ -5716,7 +5720,7 @@
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
+      <c r="A244" s="1" t="s">
         <v>312</v>
       </c>
       <c r="B244" t="s">
@@ -5724,7 +5728,7 @@
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
+      <c r="A245" s="1" t="s">
         <v>313</v>
       </c>
       <c r="B245" t="s">
@@ -5732,7 +5736,7 @@
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
+      <c r="A246" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B246" t="s">
@@ -5740,7 +5744,7 @@
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
+      <c r="A247" s="1" t="s">
         <v>315</v>
       </c>
       <c r="B247" t="s">
@@ -5748,7 +5752,7 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
+      <c r="A248" s="1" t="s">
         <v>316</v>
       </c>
       <c r="B248" t="s">
@@ -5756,7 +5760,7 @@
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
+      <c r="A249" s="1" t="s">
         <v>317</v>
       </c>
       <c r="B249" t="s">
@@ -5764,7 +5768,7 @@
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
+      <c r="A250" s="1" t="s">
         <v>318</v>
       </c>
       <c r="B250" t="s">
@@ -5772,7 +5776,7 @@
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
+      <c r="A251" s="1" t="s">
         <v>319</v>
       </c>
       <c r="B251" t="s">
@@ -5780,7 +5784,7 @@
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
+      <c r="A252" s="1" t="s">
         <v>320</v>
       </c>
       <c r="B252" t="s">
@@ -5788,7 +5792,7 @@
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
+      <c r="A253" s="1" t="s">
         <v>321</v>
       </c>
       <c r="B253" t="s">
@@ -5796,7 +5800,7 @@
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
+      <c r="A254" s="1" t="s">
         <v>323</v>
       </c>
       <c r="B254" t="s">
@@ -5804,7 +5808,7 @@
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
+      <c r="A255" s="1" t="s">
         <v>324</v>
       </c>
       <c r="B255" t="s">
@@ -5812,7 +5816,7 @@
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
+      <c r="A256" s="1" t="s">
         <v>325</v>
       </c>
       <c r="B256" t="s">
@@ -5820,7 +5824,7 @@
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
+      <c r="A257" s="1" t="s">
         <v>326</v>
       </c>
       <c r="B257" t="s">
@@ -5828,7 +5832,7 @@
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
+      <c r="A258" s="1" t="s">
         <v>327</v>
       </c>
       <c r="B258" t="s">
@@ -5836,7 +5840,7 @@
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
+      <c r="A259" s="1" t="s">
         <v>328</v>
       </c>
       <c r="B259" t="s">
@@ -5844,7 +5848,7 @@
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
+      <c r="A260" s="1" t="s">
         <v>329</v>
       </c>
       <c r="B260" t="s">
@@ -5852,7 +5856,7 @@
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
+      <c r="A261" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B261" t="s">
@@ -5860,7 +5864,7 @@
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
+      <c r="A262" s="1" t="s">
         <v>331</v>
       </c>
       <c r="B262" t="s">
@@ -5868,7 +5872,7 @@
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
+      <c r="A263" s="1" t="s">
         <v>333</v>
       </c>
       <c r="B263" t="s">
@@ -5876,7 +5880,7 @@
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
+      <c r="A264" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B264" t="s">
@@ -5884,7 +5888,7 @@
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
+      <c r="A265" s="1" t="s">
         <v>336</v>
       </c>
       <c r="B265" t="s">
@@ -5892,7 +5896,7 @@
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
+      <c r="A266" s="1" t="s">
         <v>337</v>
       </c>
       <c r="B266" t="s">
@@ -5900,7 +5904,7 @@
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
+      <c r="A267" s="1" t="s">
         <v>338</v>
       </c>
       <c r="B267" t="s">
@@ -5908,7 +5912,7 @@
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
+      <c r="A268" s="1" t="s">
         <v>339</v>
       </c>
       <c r="B268" t="s">
@@ -5916,7 +5920,7 @@
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
+      <c r="A269" s="1" t="s">
         <v>340</v>
       </c>
       <c r="B269" t="s">
@@ -5924,7 +5928,7 @@
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
+      <c r="A270" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B270" t="s">
@@ -5932,7 +5936,7 @@
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
+      <c r="A271" s="1" t="s">
         <v>342</v>
       </c>
       <c r="B271" t="s">
@@ -5940,7 +5944,7 @@
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
+      <c r="A272" s="1" t="s">
         <v>343</v>
       </c>
       <c r="B272" t="s">
@@ -5948,7 +5952,7 @@
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
+      <c r="A273" s="1" t="s">
         <v>344</v>
       </c>
       <c r="B273" t="s">
@@ -5956,7 +5960,7 @@
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
+      <c r="A274" s="1" t="s">
         <v>345</v>
       </c>
       <c r="B274" t="s">
@@ -5964,7 +5968,7 @@
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
+      <c r="A275" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B275" t="s">
@@ -5972,7 +5976,7 @@
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
+      <c r="A276" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B276" t="s">
@@ -5980,7 +5984,7 @@
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
+      <c r="A277" s="1" t="s">
         <v>348</v>
       </c>
       <c r="B277" t="s">
@@ -5988,7 +5992,7 @@
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
+      <c r="A278" s="1" t="s">
         <v>349</v>
       </c>
       <c r="B278" t="s">
@@ -5996,7 +6000,7 @@
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
+      <c r="A279" s="1" t="s">
         <v>350</v>
       </c>
       <c r="B279" t="s">
@@ -6004,7 +6008,7 @@
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
+      <c r="A280" s="1" t="s">
         <v>351</v>
       </c>
       <c r="B280" t="s">
@@ -6012,7 +6016,7 @@
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
+      <c r="A281" s="1" t="s">
         <v>352</v>
       </c>
       <c r="B281" t="s">
@@ -6020,7 +6024,7 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
+      <c r="A282" s="1" t="s">
         <v>353</v>
       </c>
       <c r="B282" t="s">
@@ -6028,7 +6032,7 @@
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
+      <c r="A283" s="1" t="s">
         <v>354</v>
       </c>
       <c r="B283" t="s">
@@ -6036,7 +6040,7 @@
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
+      <c r="A284" s="1" t="s">
         <v>356</v>
       </c>
       <c r="B284" t="s">
@@ -6044,7 +6048,7 @@
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
+      <c r="A285" s="1" t="s">
         <v>357</v>
       </c>
       <c r="B285" t="s">
@@ -6052,7 +6056,7 @@
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
+      <c r="A286" s="1" t="s">
         <v>358</v>
       </c>
       <c r="B286" t="s">
@@ -6060,7 +6064,7 @@
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
+      <c r="A287" s="1" t="s">
         <v>359</v>
       </c>
       <c r="B287" t="s">
@@ -6068,7 +6072,7 @@
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
+      <c r="A288" s="1" t="s">
         <v>360</v>
       </c>
       <c r="B288" t="s">
@@ -6076,7 +6080,7 @@
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
+      <c r="A289" s="1" t="s">
         <v>361</v>
       </c>
       <c r="B289" t="s">
@@ -6084,7 +6088,7 @@
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
+      <c r="A290" s="1" t="s">
         <v>362</v>
       </c>
       <c r="B290" t="s">
@@ -6092,7 +6096,7 @@
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
+      <c r="A291" s="1" t="s">
         <v>363</v>
       </c>
       <c r="B291" t="s">
@@ -6100,7 +6104,7 @@
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
+      <c r="A292" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B292" t="s">
@@ -6108,7 +6112,7 @@
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
+      <c r="A293" s="1" t="s">
         <v>365</v>
       </c>
       <c r="B293" t="s">
@@ -6116,7 +6120,7 @@
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
+      <c r="A294" s="1" t="s">
         <v>366</v>
       </c>
       <c r="B294" t="s">
@@ -6124,7 +6128,7 @@
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
+      <c r="A295" s="1" t="s">
         <v>367</v>
       </c>
       <c r="B295" t="s">
@@ -6132,7 +6136,7 @@
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
+      <c r="A296" s="1" t="s">
         <v>368</v>
       </c>
       <c r="B296" t="s">
@@ -6140,7 +6144,7 @@
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
+      <c r="A297" s="1" t="s">
         <v>369</v>
       </c>
       <c r="B297" t="s">
@@ -6148,7 +6152,7 @@
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
+      <c r="A298" s="1" t="s">
         <v>370</v>
       </c>
       <c r="B298" t="s">
@@ -6156,7 +6160,7 @@
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
+      <c r="A299" s="1" t="s">
         <v>371</v>
       </c>
       <c r="B299" t="s">
@@ -6164,7 +6168,7 @@
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
+      <c r="A300" s="1" t="s">
         <v>372</v>
       </c>
       <c r="B300" t="s">
@@ -6172,7 +6176,7 @@
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
+      <c r="A301" s="1" t="s">
         <v>373</v>
       </c>
       <c r="B301" t="s">
@@ -6180,7 +6184,7 @@
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
+      <c r="A302" s="1" t="s">
         <v>374</v>
       </c>
       <c r="B302" t="s">
@@ -6188,7 +6192,7 @@
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
+      <c r="A303" s="1" t="s">
         <v>375</v>
       </c>
       <c r="B303" t="s">
@@ -6196,7 +6200,7 @@
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
+      <c r="A304" s="1" t="s">
         <v>376</v>
       </c>
       <c r="B304" t="s">
@@ -6204,7 +6208,7 @@
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
+      <c r="A305" s="1" t="s">
         <v>377</v>
       </c>
       <c r="B305" t="s">
@@ -6212,7 +6216,7 @@
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
+      <c r="A306" s="1" t="s">
         <v>378</v>
       </c>
       <c r="B306" t="s">
@@ -6220,7 +6224,7 @@
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
+      <c r="A307" s="1" t="s">
         <v>379</v>
       </c>
       <c r="B307" t="s">
@@ -6228,7 +6232,7 @@
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
+      <c r="A308" s="1" t="s">
         <v>380</v>
       </c>
       <c r="B308" t="s">
@@ -6236,7 +6240,7 @@
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
+      <c r="A309" s="1" t="s">
         <v>381</v>
       </c>
       <c r="B309" t="s">
@@ -6244,7 +6248,7 @@
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
+      <c r="A310" s="1" t="s">
         <v>382</v>
       </c>
       <c r="B310" t="s">
@@ -6252,7 +6256,7 @@
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
+      <c r="A311" s="1" t="s">
         <v>383</v>
       </c>
       <c r="B311" t="s">
@@ -6260,7 +6264,7 @@
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
+      <c r="A312" s="1" t="s">
         <v>384</v>
       </c>
       <c r="B312" t="s">
@@ -6268,7 +6272,7 @@
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
+      <c r="A313" s="1" t="s">
         <v>385</v>
       </c>
       <c r="B313" t="s">
@@ -6276,7 +6280,7 @@
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
+      <c r="A314" s="1" t="s">
         <v>386</v>
       </c>
       <c r="B314" t="s">
@@ -6284,7 +6288,7 @@
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
+      <c r="A315" s="1" t="s">
         <v>387</v>
       </c>
       <c r="B315" t="s">
@@ -6292,7 +6296,7 @@
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
+      <c r="A316" s="1" t="s">
         <v>388</v>
       </c>
       <c r="B316" t="s">
@@ -6300,7 +6304,7 @@
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
+      <c r="A317" s="1" t="s">
         <v>389</v>
       </c>
       <c r="B317" t="s">
@@ -6308,7 +6312,7 @@
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
+      <c r="A318" s="1" t="s">
         <v>390</v>
       </c>
       <c r="B318" t="s">
@@ -6316,7 +6320,7 @@
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
+      <c r="A319" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B319" t="s">
@@ -6324,7 +6328,7 @@
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320" t="s">
+      <c r="A320" s="1" t="s">
         <v>392</v>
       </c>
       <c r="B320" t="s">
@@ -6332,7 +6336,7 @@
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
+      <c r="A321" s="1" t="s">
         <v>393</v>
       </c>
       <c r="B321" t="s">
@@ -6340,7 +6344,7 @@
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
+      <c r="A322" s="1" t="s">
         <v>394</v>
       </c>
       <c r="B322" t="s">
@@ -6348,7 +6352,7 @@
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
+      <c r="A323" s="1" t="s">
         <v>395</v>
       </c>
       <c r="B323" t="s">
@@ -6356,7 +6360,7 @@
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
+      <c r="A324" s="1" t="s">
         <v>396</v>
       </c>
       <c r="B324" t="s">
@@ -6364,7 +6368,7 @@
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
+      <c r="A325" s="1" t="s">
         <v>397</v>
       </c>
       <c r="B325" t="s">
@@ -6372,7 +6376,7 @@
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
+      <c r="A326" s="1" t="s">
         <v>398</v>
       </c>
       <c r="B326" t="s">
@@ -6380,7 +6384,7 @@
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
+      <c r="A327" s="1" t="s">
         <v>399</v>
       </c>
       <c r="B327" t="s">
@@ -6388,7 +6392,7 @@
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
+      <c r="A328" s="1" t="s">
         <v>400</v>
       </c>
       <c r="B328" t="s">
@@ -6396,7 +6400,7 @@
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
+      <c r="A329" s="1" t="s">
         <v>401</v>
       </c>
       <c r="B329" t="s">
@@ -6404,7 +6408,7 @@
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
+      <c r="A330" s="1" t="s">
         <v>402</v>
       </c>
       <c r="B330" t="s">
@@ -6412,7 +6416,7 @@
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
+      <c r="A331" s="1" t="s">
         <v>403</v>
       </c>
       <c r="B331" t="s">
@@ -6420,7 +6424,7 @@
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332" t="s">
+      <c r="A332" s="1" t="s">
         <v>404</v>
       </c>
       <c r="B332" t="s">
@@ -6428,7 +6432,7 @@
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333" t="s">
+      <c r="A333" s="1" t="s">
         <v>405</v>
       </c>
       <c r="B333" t="s">
@@ -6436,7 +6440,7 @@
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
+      <c r="A334" s="1" t="s">
         <v>406</v>
       </c>
       <c r="B334" t="s">
@@ -6444,7 +6448,7 @@
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
+      <c r="A335" s="1" t="s">
         <v>407</v>
       </c>
       <c r="B335" t="s">
@@ -6452,7 +6456,7 @@
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336" t="s">
+      <c r="A336" s="1" t="s">
         <v>408</v>
       </c>
       <c r="B336" t="s">
@@ -6460,7 +6464,7 @@
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337" t="s">
+      <c r="A337" s="1" t="s">
         <v>409</v>
       </c>
       <c r="B337" t="s">
@@ -6468,7 +6472,7 @@
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338" t="s">
+      <c r="A338" s="1" t="s">
         <v>410</v>
       </c>
       <c r="B338" t="s">
@@ -6476,7 +6480,7 @@
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339" t="s">
+      <c r="A339" s="1" t="s">
         <v>411</v>
       </c>
       <c r="B339" t="s">
@@ -6484,7 +6488,7 @@
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340" t="s">
+      <c r="A340" s="1" t="s">
         <v>412</v>
       </c>
       <c r="B340" t="s">
@@ -6492,7 +6496,7 @@
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A341" t="s">
+      <c r="A341" s="1" t="s">
         <v>413</v>
       </c>
       <c r="B341" t="s">
@@ -6500,7 +6504,7 @@
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
+      <c r="A342" s="1" t="s">
         <v>414</v>
       </c>
       <c r="B342" t="s">
@@ -6508,7 +6512,7 @@
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
+      <c r="A343" s="1" t="s">
         <v>415</v>
       </c>
       <c r="B343" t="s">
@@ -6516,7 +6520,7 @@
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
+      <c r="A344" s="1" t="s">
         <v>416</v>
       </c>
       <c r="B344" t="s">
@@ -6524,7 +6528,7 @@
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
+      <c r="A345" s="1" t="s">
         <v>417</v>
       </c>
       <c r="B345" t="s">
@@ -6532,7 +6536,7 @@
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
+      <c r="A346" s="1" t="s">
         <v>419</v>
       </c>
       <c r="B346" t="s">
@@ -6540,7 +6544,7 @@
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
+      <c r="A347" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B347" t="s">
@@ -6548,7 +6552,7 @@
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348" t="s">
+      <c r="A348" s="1" t="s">
         <v>421</v>
       </c>
       <c r="B348" t="s">
@@ -6556,7 +6560,7 @@
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
+      <c r="A349" s="1" t="s">
         <v>422</v>
       </c>
       <c r="B349" t="s">
@@ -6564,7 +6568,7 @@
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350" t="s">
+      <c r="A350" s="1" t="s">
         <v>423</v>
       </c>
       <c r="B350" t="s">
@@ -6572,7 +6576,7 @@
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351" t="s">
+      <c r="A351" s="1" t="s">
         <v>424</v>
       </c>
       <c r="B351" t="s">
@@ -6580,7 +6584,7 @@
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
+      <c r="A352" s="1" t="s">
         <v>426</v>
       </c>
       <c r="B352" t="s">
@@ -6588,7 +6592,7 @@
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353" t="s">
+      <c r="A353" s="1" t="s">
         <v>427</v>
       </c>
       <c r="B353" t="s">
@@ -6596,7 +6600,7 @@
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354" t="s">
+      <c r="A354" s="1" t="s">
         <v>428</v>
       </c>
       <c r="B354" t="s">
@@ -6604,7 +6608,7 @@
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355" t="s">
+      <c r="A355" s="1" t="s">
         <v>429</v>
       </c>
       <c r="B355" t="s">
@@ -6612,7 +6616,7 @@
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356" t="s">
+      <c r="A356" s="1" t="s">
         <v>430</v>
       </c>
       <c r="B356" t="s">
@@ -6620,7 +6624,7 @@
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357" t="s">
+      <c r="A357" s="1" t="s">
         <v>431</v>
       </c>
       <c r="B357" t="s">
@@ -6628,7 +6632,7 @@
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358" t="s">
+      <c r="A358" s="1" t="s">
         <v>433</v>
       </c>
       <c r="B358" t="s">
@@ -6636,7 +6640,7 @@
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359" t="s">
+      <c r="A359" s="1" t="s">
         <v>434</v>
       </c>
       <c r="B359" t="s">
@@ -6644,7 +6648,7 @@
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360" t="s">
+      <c r="A360" s="1" t="s">
         <v>435</v>
       </c>
       <c r="B360" t="s">
@@ -6652,7 +6656,7 @@
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361" t="s">
+      <c r="A361" s="1" t="s">
         <v>436</v>
       </c>
       <c r="B361" t="s">
@@ -6660,7 +6664,7 @@
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362" t="s">
+      <c r="A362" s="1" t="s">
         <v>437</v>
       </c>
       <c r="B362" t="s">
@@ -6668,7 +6672,7 @@
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A363" t="s">
+      <c r="A363" s="1" t="s">
         <v>438</v>
       </c>
       <c r="B363" t="s">
@@ -6676,7 +6680,7 @@
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A364" t="s">
+      <c r="A364" s="1" t="s">
         <v>439</v>
       </c>
       <c r="B364" t="s">
@@ -6684,7 +6688,7 @@
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365" t="s">
+      <c r="A365" s="1" t="s">
         <v>440</v>
       </c>
       <c r="B365" t="s">
@@ -6692,7 +6696,7 @@
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A366" t="s">
+      <c r="A366" s="1" t="s">
         <v>441</v>
       </c>
       <c r="B366" t="s">
@@ -6700,7 +6704,7 @@
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" t="s">
+      <c r="A367" s="1" t="s">
         <v>442</v>
       </c>
       <c r="B367" t="s">
@@ -6708,7 +6712,7 @@
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A368" t="s">
+      <c r="A368" s="1" t="s">
         <v>443</v>
       </c>
       <c r="B368" t="s">
@@ -6716,7 +6720,7 @@
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369" t="s">
+      <c r="A369" s="1" t="s">
         <v>444</v>
       </c>
       <c r="B369" t="s">
@@ -6724,7 +6728,7 @@
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A370" t="s">
+      <c r="A370" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B370" t="s">
@@ -6732,7 +6736,7 @@
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A371" t="s">
+      <c r="A371" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B371" t="s">
@@ -6740,7 +6744,7 @@
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A372" t="s">
+      <c r="A372" s="1" t="s">
         <v>447</v>
       </c>
       <c r="B372" t="s">
@@ -6748,7 +6752,7 @@
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A373" t="s">
+      <c r="A373" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B373" t="s">
@@ -6756,7 +6760,7 @@
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A374" t="s">
+      <c r="A374" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B374" t="s">
@@ -6764,7 +6768,7 @@
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A375" t="s">
+      <c r="A375" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B375" t="s">
@@ -6772,7 +6776,7 @@
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A376" t="s">
+      <c r="A376" s="1" t="s">
         <v>451</v>
       </c>
       <c r="B376" t="s">
@@ -6780,7 +6784,7 @@
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377" t="s">
+      <c r="A377" s="1" t="s">
         <v>452</v>
       </c>
       <c r="B377" t="s">
@@ -6788,7 +6792,7 @@
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A378" t="s">
+      <c r="A378" s="1" t="s">
         <v>453</v>
       </c>
       <c r="B378" t="s">
@@ -6796,7 +6800,7 @@
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379" t="s">
+      <c r="A379" s="1" t="s">
         <v>454</v>
       </c>
       <c r="B379" t="s">
@@ -6804,7 +6808,7 @@
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380" t="s">
+      <c r="A380" s="1" t="s">
         <v>455</v>
       </c>
       <c r="B380" t="s">
@@ -6812,7 +6816,7 @@
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A381" t="s">
+      <c r="A381" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B381" t="s">
@@ -6820,7 +6824,7 @@
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A382" t="s">
+      <c r="A382" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B382" t="s">
@@ -6828,7 +6832,7 @@
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A383" t="s">
+      <c r="A383" s="1" t="s">
         <v>458</v>
       </c>
       <c r="B383" t="s">
@@ -6836,7 +6840,7 @@
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A384" t="s">
+      <c r="A384" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B384" t="s">
@@ -6844,7 +6848,7 @@
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A385" t="s">
+      <c r="A385" s="1" t="s">
         <v>460</v>
       </c>
       <c r="B385" t="s">
@@ -6852,7 +6856,7 @@
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A386" t="s">
+      <c r="A386" s="1" t="s">
         <v>461</v>
       </c>
       <c r="B386" t="s">
@@ -6860,7 +6864,7 @@
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A387" t="s">
+      <c r="A387" s="1" t="s">
         <v>462</v>
       </c>
       <c r="B387" t="s">
@@ -6868,7 +6872,7 @@
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A388" t="s">
+      <c r="A388" s="1" t="s">
         <v>463</v>
       </c>
       <c r="B388" t="s">
@@ -6876,7 +6880,7 @@
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A389" t="s">
+      <c r="A389" s="1" t="s">
         <v>464</v>
       </c>
       <c r="B389" t="s">
@@ -6884,7 +6888,7 @@
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A390" t="s">
+      <c r="A390" s="1" t="s">
         <v>465</v>
       </c>
       <c r="B390" t="s">
@@ -6892,7 +6896,7 @@
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A391" t="s">
+      <c r="A391" s="1" t="s">
         <v>466</v>
       </c>
       <c r="B391" t="s">
@@ -6900,7 +6904,7 @@
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A392" t="s">
+      <c r="A392" s="1" t="s">
         <v>467</v>
       </c>
       <c r="B392" t="s">
@@ -6908,7 +6912,7 @@
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A393" t="s">
+      <c r="A393" s="1" t="s">
         <v>468</v>
       </c>
       <c r="B393" t="s">
@@ -6916,7 +6920,7 @@
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A394" t="s">
+      <c r="A394" s="1" t="s">
         <v>469</v>
       </c>
       <c r="B394" t="s">
@@ -6924,7 +6928,7 @@
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A395" t="s">
+      <c r="A395" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B395" t="s">
@@ -6932,7 +6936,7 @@
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A396" t="s">
+      <c r="A396" s="1" t="s">
         <v>471</v>
       </c>
       <c r="B396" t="s">
@@ -6940,7 +6944,7 @@
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A397" t="s">
+      <c r="A397" s="1" t="s">
         <v>472</v>
       </c>
       <c r="B397" t="s">
@@ -6948,7 +6952,7 @@
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A398" t="s">
+      <c r="A398" s="1" t="s">
         <v>473</v>
       </c>
       <c r="B398" t="s">
@@ -6956,7 +6960,7 @@
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A399" t="s">
+      <c r="A399" s="1" t="s">
         <v>474</v>
       </c>
       <c r="B399" t="s">
@@ -6964,7 +6968,7 @@
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A400" t="s">
+      <c r="A400" s="1" t="s">
         <v>475</v>
       </c>
       <c r="B400" t="s">
@@ -6972,7 +6976,7 @@
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A401" t="s">
+      <c r="A401" s="1" t="s">
         <v>476</v>
       </c>
       <c r="B401" t="s">
@@ -6980,7 +6984,7 @@
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A402" t="s">
+      <c r="A402" s="1" t="s">
         <v>477</v>
       </c>
       <c r="B402" t="s">
@@ -6988,7 +6992,7 @@
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A403" t="s">
+      <c r="A403" s="1" t="s">
         <v>478</v>
       </c>
       <c r="B403" t="s">
@@ -6996,7 +7000,7 @@
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A404" t="s">
+      <c r="A404" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B404" t="s">
@@ -7004,7 +7008,7 @@
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A405" t="s">
+      <c r="A405" s="1" t="s">
         <v>480</v>
       </c>
       <c r="B405" t="s">
@@ -7012,7 +7016,7 @@
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A406" t="s">
+      <c r="A406" s="1" t="s">
         <v>481</v>
       </c>
       <c r="B406" t="s">
@@ -7020,7 +7024,7 @@
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A407" t="s">
+      <c r="A407" s="1" t="s">
         <v>482</v>
       </c>
       <c r="B407" t="s">
@@ -7028,7 +7032,7 @@
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A408" t="s">
+      <c r="A408" s="1" t="s">
         <v>483</v>
       </c>
       <c r="B408" t="s">
@@ -7036,7 +7040,7 @@
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A409" t="s">
+      <c r="A409" s="1" t="s">
         <v>484</v>
       </c>
       <c r="B409" t="s">
@@ -7044,7 +7048,7 @@
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A410" t="s">
+      <c r="A410" s="1" t="s">
         <v>485</v>
       </c>
       <c r="B410" t="s">
@@ -7052,7 +7056,7 @@
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A411" t="s">
+      <c r="A411" s="1" t="s">
         <v>486</v>
       </c>
       <c r="B411" t="s">
@@ -7060,7 +7064,7 @@
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A412" t="s">
+      <c r="A412" s="1" t="s">
         <v>487</v>
       </c>
       <c r="B412" t="s">
@@ -7068,7 +7072,7 @@
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A413" t="s">
+      <c r="A413" s="1" t="s">
         <v>488</v>
       </c>
       <c r="B413" t="s">
@@ -7076,7 +7080,7 @@
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A414" t="s">
+      <c r="A414" s="1" t="s">
         <v>489</v>
       </c>
       <c r="B414" t="s">
@@ -7084,7 +7088,7 @@
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A415" t="s">
+      <c r="A415" s="1" t="s">
         <v>490</v>
       </c>
       <c r="B415" t="s">
@@ -7092,7 +7096,7 @@
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A416" t="s">
+      <c r="A416" s="1" t="s">
         <v>491</v>
       </c>
       <c r="B416" t="s">
@@ -7100,7 +7104,7 @@
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A417" t="s">
+      <c r="A417" s="1" t="s">
         <v>492</v>
       </c>
       <c r="B417" t="s">
@@ -7108,7 +7112,7 @@
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A418" t="s">
+      <c r="A418" s="1" t="s">
         <v>493</v>
       </c>
       <c r="B418" t="s">
@@ -7116,7 +7120,7 @@
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A419" t="s">
+      <c r="A419" s="1" t="s">
         <v>494</v>
       </c>
       <c r="B419" t="s">
@@ -7124,7 +7128,7 @@
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A420" t="s">
+      <c r="A420" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B420" t="s">
@@ -7132,7 +7136,7 @@
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A421" t="s">
+      <c r="A421" s="1" t="s">
         <v>496</v>
       </c>
       <c r="B421" t="s">
@@ -7140,7 +7144,7 @@
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A422" t="s">
+      <c r="A422" s="1" t="s">
         <v>497</v>
       </c>
       <c r="B422" t="s">
@@ -7148,7 +7152,7 @@
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A423" t="s">
+      <c r="A423" s="1" t="s">
         <v>498</v>
       </c>
       <c r="B423" t="s">
@@ -7156,7 +7160,7 @@
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A424" t="s">
+      <c r="A424" s="1" t="s">
         <v>499</v>
       </c>
       <c r="B424" t="s">
@@ -7164,7 +7168,7 @@
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A425" t="s">
+      <c r="A425" s="1" t="s">
         <v>500</v>
       </c>
       <c r="B425" t="s">
@@ -7172,7 +7176,7 @@
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A426" t="s">
+      <c r="A426" s="1" t="s">
         <v>501</v>
       </c>
       <c r="B426" t="s">
@@ -7180,7 +7184,7 @@
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A427" t="s">
+      <c r="A427" s="1" t="s">
         <v>502</v>
       </c>
       <c r="B427" t="s">
@@ -7188,7 +7192,7 @@
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A428" t="s">
+      <c r="A428" s="1" t="s">
         <v>503</v>
       </c>
       <c r="B428" t="s">
@@ -7196,7 +7200,7 @@
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A429" t="s">
+      <c r="A429" s="1" t="s">
         <v>504</v>
       </c>
       <c r="B429" t="s">
@@ -7204,7 +7208,7 @@
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A430" t="s">
+      <c r="A430" s="1" t="s">
         <v>505</v>
       </c>
       <c r="B430" t="s">
@@ -7212,7 +7216,7 @@
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A431" t="s">
+      <c r="A431" s="1" t="s">
         <v>506</v>
       </c>
       <c r="B431" t="s">
@@ -7220,7 +7224,7 @@
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A432" t="s">
+      <c r="A432" s="1" t="s">
         <v>507</v>
       </c>
       <c r="B432" t="s">
@@ -7228,7 +7232,7 @@
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A433" t="s">
+      <c r="A433" s="1" t="s">
         <v>508</v>
       </c>
       <c r="B433" t="s">
@@ -7236,7 +7240,7 @@
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A434" t="s">
+      <c r="A434" s="1" t="s">
         <v>509</v>
       </c>
       <c r="B434" t="s">
@@ -7244,7 +7248,7 @@
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A435" t="s">
+      <c r="A435" s="1" t="s">
         <v>510</v>
       </c>
       <c r="B435" t="s">
@@ -7252,7 +7256,7 @@
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A436" t="s">
+      <c r="A436" s="1" t="s">
         <v>511</v>
       </c>
       <c r="B436" t="s">
@@ -7260,7 +7264,7 @@
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A437" t="s">
+      <c r="A437" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B437" t="s">
@@ -7268,7 +7272,7 @@
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A438" t="s">
+      <c r="A438" s="1" t="s">
         <v>513</v>
       </c>
       <c r="B438" t="s">
@@ -7276,7 +7280,7 @@
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A439" t="s">
+      <c r="A439" s="1" t="s">
         <v>514</v>
       </c>
       <c r="B439" t="s">
@@ -7284,7 +7288,7 @@
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A440" t="s">
+      <c r="A440" s="1" t="s">
         <v>515</v>
       </c>
       <c r="B440" t="s">
@@ -7292,7 +7296,7 @@
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A441" t="s">
+      <c r="A441" s="1" t="s">
         <v>516</v>
       </c>
       <c r="B441" t="s">
@@ -7300,7 +7304,7 @@
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A442" t="s">
+      <c r="A442" s="1" t="s">
         <v>517</v>
       </c>
       <c r="B442" t="s">
@@ -7308,7 +7312,7 @@
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A443" t="s">
+      <c r="A443" s="1" t="s">
         <v>518</v>
       </c>
       <c r="B443" t="s">
@@ -7316,7 +7320,7 @@
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A444" t="s">
+      <c r="A444" s="1" t="s">
         <v>519</v>
       </c>
       <c r="B444" t="s">
@@ -7324,7 +7328,7 @@
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A445" t="s">
+      <c r="A445" s="1" t="s">
         <v>520</v>
       </c>
       <c r="B445" t="s">
@@ -7332,7 +7336,7 @@
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A446" t="s">
+      <c r="A446" s="1" t="s">
         <v>521</v>
       </c>
       <c r="B446" t="s">
@@ -7340,7 +7344,7 @@
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A447" t="s">
+      <c r="A447" s="1" t="s">
         <v>522</v>
       </c>
       <c r="B447" t="s">
@@ -7348,7 +7352,7 @@
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A448" t="s">
+      <c r="A448" s="1" t="s">
         <v>523</v>
       </c>
       <c r="B448" t="s">
@@ -7356,7 +7360,7 @@
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A449" t="s">
+      <c r="A449" s="1" t="s">
         <v>524</v>
       </c>
       <c r="B449" t="s">
@@ -7364,7 +7368,7 @@
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A450" t="s">
+      <c r="A450" s="1" t="s">
         <v>525</v>
       </c>
       <c r="B450" t="s">
@@ -7372,7 +7376,7 @@
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A451" t="s">
+      <c r="A451" s="1" t="s">
         <v>526</v>
       </c>
       <c r="B451" t="s">
@@ -7380,7 +7384,7 @@
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A452" t="s">
+      <c r="A452" s="1" t="s">
         <v>527</v>
       </c>
       <c r="B452" t="s">
@@ -7388,7 +7392,7 @@
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A453" t="s">
+      <c r="A453" s="1" t="s">
         <v>528</v>
       </c>
       <c r="B453" t="s">
@@ -7396,7 +7400,7 @@
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A454" t="s">
+      <c r="A454" s="1" t="s">
         <v>529</v>
       </c>
       <c r="B454" t="s">
@@ -7404,7 +7408,7 @@
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A455" t="s">
+      <c r="A455" s="1" t="s">
         <v>530</v>
       </c>
       <c r="B455" t="s">
@@ -7412,7 +7416,7 @@
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A456" t="s">
+      <c r="A456" s="1" t="s">
         <v>531</v>
       </c>
       <c r="B456" t="s">
@@ -7420,7 +7424,7 @@
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A457" t="s">
+      <c r="A457" s="1" t="s">
         <v>532</v>
       </c>
       <c r="B457" t="s">
@@ -7428,7 +7432,7 @@
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A458" t="s">
+      <c r="A458" s="1" t="s">
         <v>534</v>
       </c>
       <c r="B458" t="s">
@@ -7436,7 +7440,7 @@
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A459" t="s">
+      <c r="A459" s="1" t="s">
         <v>535</v>
       </c>
       <c r="B459" t="s">
@@ -7444,7 +7448,7 @@
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A460" t="s">
+      <c r="A460" s="1" t="s">
         <v>536</v>
       </c>
       <c r="B460" t="s">
@@ -7452,7 +7456,7 @@
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A461" t="s">
+      <c r="A461" s="1" t="s">
         <v>537</v>
       </c>
       <c r="B461" t="s">
@@ -7460,7 +7464,7 @@
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A462" t="s">
+      <c r="A462" s="1" t="s">
         <v>538</v>
       </c>
       <c r="B462" t="s">
@@ -7468,7 +7472,7 @@
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A463" t="s">
+      <c r="A463" s="1" t="s">
         <v>539</v>
       </c>
       <c r="B463" t="s">
@@ -7476,7 +7480,7 @@
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A464" t="s">
+      <c r="A464" s="1" t="s">
         <v>540</v>
       </c>
       <c r="B464" t="s">
@@ -7484,7 +7488,7 @@
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A465" t="s">
+      <c r="A465" s="1" t="s">
         <v>541</v>
       </c>
       <c r="B465" t="s">
@@ -7492,7 +7496,7 @@
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A466" t="s">
+      <c r="A466" s="1" t="s">
         <v>542</v>
       </c>
       <c r="B466" t="s">
@@ -7500,7 +7504,7 @@
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A467" t="s">
+      <c r="A467" s="1" t="s">
         <v>543</v>
       </c>
       <c r="B467" t="s">
@@ -7508,7 +7512,7 @@
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A468" t="s">
+      <c r="A468" s="1" t="s">
         <v>544</v>
       </c>
       <c r="B468" t="s">
@@ -7516,7 +7520,7 @@
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A469" t="s">
+      <c r="A469" s="1" t="s">
         <v>545</v>
       </c>
       <c r="B469" t="s">
@@ -7524,7 +7528,7 @@
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A470" t="s">
+      <c r="A470" s="1" t="s">
         <v>546</v>
       </c>
       <c r="B470" t="s">
@@ -7532,7 +7536,7 @@
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A471" t="s">
+      <c r="A471" s="1" t="s">
         <v>547</v>
       </c>
       <c r="B471" t="s">
@@ -7540,7 +7544,7 @@
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A472" t="s">
+      <c r="A472" s="1" t="s">
         <v>548</v>
       </c>
       <c r="B472" t="s">
@@ -7548,7 +7552,7 @@
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A473" t="s">
+      <c r="A473" s="1" t="s">
         <v>549</v>
       </c>
       <c r="B473" t="s">
@@ -7556,7 +7560,7 @@
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A474" t="s">
+      <c r="A474" s="1" t="s">
         <v>550</v>
       </c>
       <c r="B474" t="s">
@@ -7564,7 +7568,7 @@
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A475" t="s">
+      <c r="A475" s="1" t="s">
         <v>551</v>
       </c>
       <c r="B475" t="s">
@@ -7572,7 +7576,7 @@
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A476" t="s">
+      <c r="A476" s="1" t="s">
         <v>552</v>
       </c>
       <c r="B476" t="s">
@@ -7580,7 +7584,7 @@
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A477" t="s">
+      <c r="A477" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B477" t="s">
@@ -7588,7 +7592,7 @@
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A478" t="s">
+      <c r="A478" s="1" t="s">
         <v>554</v>
       </c>
       <c r="B478" t="s">
@@ -7596,7 +7600,7 @@
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A479" t="s">
+      <c r="A479" s="1" t="s">
         <v>555</v>
       </c>
       <c r="B479" t="s">
@@ -7604,7 +7608,7 @@
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A480" t="s">
+      <c r="A480" s="1" t="s">
         <v>556</v>
       </c>
       <c r="B480" t="s">
@@ -7612,7 +7616,7 @@
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A481" t="s">
+      <c r="A481" s="1" t="s">
         <v>557</v>
       </c>
       <c r="B481" t="s">
@@ -7620,7 +7624,7 @@
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A482" t="s">
+      <c r="A482" s="1" t="s">
         <v>558</v>
       </c>
       <c r="B482" t="s">
@@ -7628,7 +7632,7 @@
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A483" t="s">
+      <c r="A483" s="1" t="s">
         <v>559</v>
       </c>
       <c r="B483" t="s">
@@ -7636,7 +7640,7 @@
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A484" t="s">
+      <c r="A484" s="1" t="s">
         <v>560</v>
       </c>
       <c r="B484" t="s">
@@ -7644,7 +7648,7 @@
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A485" t="s">
+      <c r="A485" s="1" t="s">
         <v>561</v>
       </c>
       <c r="B485" t="s">
@@ -7652,7 +7656,7 @@
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A486" t="s">
+      <c r="A486" s="1" t="s">
         <v>562</v>
       </c>
       <c r="B486" t="s">
@@ -7660,7 +7664,7 @@
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A487" t="s">
+      <c r="A487" s="1" t="s">
         <v>563</v>
       </c>
       <c r="B487" t="s">
@@ -7668,7 +7672,7 @@
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A488" t="s">
+      <c r="A488" s="1" t="s">
         <v>564</v>
       </c>
       <c r="B488" t="s">
@@ -7676,7 +7680,7 @@
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A489" t="s">
+      <c r="A489" s="1" t="s">
         <v>565</v>
       </c>
       <c r="B489" t="s">
@@ -7684,7 +7688,7 @@
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A490" t="s">
+      <c r="A490" s="1" t="s">
         <v>566</v>
       </c>
       <c r="B490" t="s">
@@ -7692,7 +7696,7 @@
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A491" t="s">
+      <c r="A491" s="1" t="s">
         <v>567</v>
       </c>
       <c r="B491" t="s">
@@ -7700,7 +7704,7 @@
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A492" t="s">
+      <c r="A492" s="1" t="s">
         <v>568</v>
       </c>
       <c r="B492" t="s">
@@ -7708,7 +7712,7 @@
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A493" t="s">
+      <c r="A493" s="1" t="s">
         <v>569</v>
       </c>
       <c r="B493" t="s">
@@ -7716,7 +7720,7 @@
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A494" t="s">
+      <c r="A494" s="1" t="s">
         <v>570</v>
       </c>
       <c r="B494" t="s">
@@ -7724,7 +7728,7 @@
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A495" t="s">
+      <c r="A495" s="1" t="s">
         <v>571</v>
       </c>
       <c r="B495" t="s">
@@ -7732,7 +7736,7 @@
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A496" t="s">
+      <c r="A496" s="1" t="s">
         <v>572</v>
       </c>
       <c r="B496" t="s">
@@ -7740,7 +7744,7 @@
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A497" t="s">
+      <c r="A497" s="1" t="s">
         <v>573</v>
       </c>
       <c r="B497" t="s">
@@ -7748,7 +7752,7 @@
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A498" t="s">
+      <c r="A498" s="1" t="s">
         <v>574</v>
       </c>
       <c r="B498" t="s">
@@ -7756,7 +7760,7 @@
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A499" t="s">
+      <c r="A499" s="1" t="s">
         <v>575</v>
       </c>
       <c r="B499" t="s">
@@ -7764,7 +7768,7 @@
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A500" t="s">
+      <c r="A500" s="1" t="s">
         <v>576</v>
       </c>
       <c r="B500" t="s">
@@ -7772,7 +7776,7 @@
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A501" t="s">
+      <c r="A501" s="1" t="s">
         <v>577</v>
       </c>
       <c r="B501" t="s">
@@ -7780,7 +7784,7 @@
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A502" t="s">
+      <c r="A502" s="1" t="s">
         <v>578</v>
       </c>
       <c r="B502" t="s">
@@ -7788,7 +7792,7 @@
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A503" t="s">
+      <c r="A503" s="1" t="s">
         <v>579</v>
       </c>
       <c r="B503" t="s">
@@ -7796,7 +7800,7 @@
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A504" t="s">
+      <c r="A504" s="1" t="s">
         <v>580</v>
       </c>
       <c r="B504" t="s">
@@ -7804,7 +7808,7 @@
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A505" t="s">
+      <c r="A505" s="1" t="s">
         <v>581</v>
       </c>
       <c r="B505" t="s">
@@ -7812,7 +7816,7 @@
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A506" t="s">
+      <c r="A506" s="1" t="s">
         <v>582</v>
       </c>
       <c r="B506" t="s">
@@ -7820,7 +7824,7 @@
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A507" t="s">
+      <c r="A507" s="1" t="s">
         <v>583</v>
       </c>
       <c r="B507" t="s">
@@ -7828,7 +7832,7 @@
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A508" t="s">
+      <c r="A508" s="1" t="s">
         <v>584</v>
       </c>
       <c r="B508" t="s">
@@ -7836,7 +7840,7 @@
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A509" t="s">
+      <c r="A509" s="1" t="s">
         <v>585</v>
       </c>
       <c r="B509" t="s">
@@ -7844,7 +7848,7 @@
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A510" t="s">
+      <c r="A510" s="1" t="s">
         <v>586</v>
       </c>
       <c r="B510" t="s">
@@ -7852,7 +7856,7 @@
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A511" t="s">
+      <c r="A511" s="1" t="s">
         <v>587</v>
       </c>
       <c r="B511" t="s">
@@ -7860,7 +7864,7 @@
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A512" t="s">
+      <c r="A512" s="1" t="s">
         <v>588</v>
       </c>
       <c r="B512" t="s">
@@ -7868,7 +7872,7 @@
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A513" t="s">
+      <c r="A513" s="1" t="s">
         <v>589</v>
       </c>
       <c r="B513" t="s">
@@ -7876,7 +7880,7 @@
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A514" t="s">
+      <c r="A514" s="1" t="s">
         <v>590</v>
       </c>
       <c r="B514" t="s">
@@ -7884,7 +7888,7 @@
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A515" t="s">
+      <c r="A515" s="1" t="s">
         <v>591</v>
       </c>
       <c r="B515" t="s">
@@ -7892,7 +7896,7 @@
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A516" t="s">
+      <c r="A516" s="1" t="s">
         <v>592</v>
       </c>
       <c r="B516" t="s">
@@ -7900,7 +7904,7 @@
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A517" t="s">
+      <c r="A517" s="1" t="s">
         <v>593</v>
       </c>
       <c r="B517" t="s">
@@ -7908,7 +7912,7 @@
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A518" t="s">
+      <c r="A518" s="1" t="s">
         <v>594</v>
       </c>
       <c r="B518" t="s">
@@ -7916,7 +7920,7 @@
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A519" t="s">
+      <c r="A519" s="1" t="s">
         <v>595</v>
       </c>
       <c r="B519" t="s">
@@ -7924,7 +7928,7 @@
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A520" t="s">
+      <c r="A520" s="1" t="s">
         <v>596</v>
       </c>
       <c r="B520" t="s">
@@ -7932,7 +7936,7 @@
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A521" t="s">
+      <c r="A521" s="1" t="s">
         <v>597</v>
       </c>
       <c r="B521" t="s">
@@ -7940,7 +7944,7 @@
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A522" t="s">
+      <c r="A522" s="1" t="s">
         <v>598</v>
       </c>
       <c r="B522" t="s">
@@ -7948,7 +7952,7 @@
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A523" t="s">
+      <c r="A523" s="1" t="s">
         <v>599</v>
       </c>
       <c r="B523" t="s">
@@ -7956,7 +7960,7 @@
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A524" t="s">
+      <c r="A524" s="1" t="s">
         <v>600</v>
       </c>
       <c r="B524" t="s">
@@ -7964,7 +7968,7 @@
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A525" t="s">
+      <c r="A525" s="1" t="s">
         <v>601</v>
       </c>
       <c r="B525" t="s">
@@ -7972,7 +7976,7 @@
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A526" t="s">
+      <c r="A526" s="1" t="s">
         <v>602</v>
       </c>
       <c r="B526" t="s">
@@ -7980,7 +7984,7 @@
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A527" t="s">
+      <c r="A527" s="1" t="s">
         <v>603</v>
       </c>
       <c r="B527" t="s">
@@ -7988,7 +7992,7 @@
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A528" t="s">
+      <c r="A528" s="1" t="s">
         <v>604</v>
       </c>
       <c r="B528" t="s">
@@ -7996,7 +8000,7 @@
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A529" t="s">
+      <c r="A529" s="1" t="s">
         <v>605</v>
       </c>
       <c r="B529" t="s">
@@ -8004,7 +8008,7 @@
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A530" t="s">
+      <c r="A530" s="1" t="s">
         <v>606</v>
       </c>
       <c r="B530" t="s">
@@ -8012,7 +8016,7 @@
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A531" t="s">
+      <c r="A531" s="1" t="s">
         <v>607</v>
       </c>
       <c r="B531" t="s">
@@ -8020,7 +8024,7 @@
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A532" t="s">
+      <c r="A532" s="1" t="s">
         <v>608</v>
       </c>
       <c r="B532" t="s">
@@ -8028,7 +8032,7 @@
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A533" t="s">
+      <c r="A533" s="1" t="s">
         <v>609</v>
       </c>
       <c r="B533" t="s">
@@ -8036,7 +8040,7 @@
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A534" t="s">
+      <c r="A534" s="1" t="s">
         <v>610</v>
       </c>
       <c r="B534" t="s">
@@ -8044,7 +8048,7 @@
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A535" t="s">
+      <c r="A535" s="1" t="s">
         <v>611</v>
       </c>
       <c r="B535" t="s">
@@ -8052,7 +8056,7 @@
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A536" t="s">
+      <c r="A536" s="1" t="s">
         <v>612</v>
       </c>
       <c r="B536" t="s">
@@ -8060,7 +8064,7 @@
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A537" t="s">
+      <c r="A537" s="1" t="s">
         <v>613</v>
       </c>
       <c r="B537" t="s">
@@ -8068,7 +8072,7 @@
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A538" t="s">
+      <c r="A538" s="1" t="s">
         <v>614</v>
       </c>
       <c r="B538" t="s">
@@ -8076,7 +8080,7 @@
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A539" t="s">
+      <c r="A539" s="1" t="s">
         <v>615</v>
       </c>
       <c r="B539" t="s">
@@ -8084,7 +8088,7 @@
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A540" t="s">
+      <c r="A540" s="1" t="s">
         <v>616</v>
       </c>
       <c r="B540" t="s">
@@ -8092,7 +8096,7 @@
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A541" t="s">
+      <c r="A541" s="1" t="s">
         <v>617</v>
       </c>
       <c r="B541" t="s">
@@ -8100,7 +8104,7 @@
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A542" t="s">
+      <c r="A542" s="1" t="s">
         <v>618</v>
       </c>
       <c r="B542" t="s">
@@ -8108,7 +8112,7 @@
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A543" t="s">
+      <c r="A543" s="1" t="s">
         <v>619</v>
       </c>
       <c r="B543" t="s">
@@ -8116,7 +8120,7 @@
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A544" t="s">
+      <c r="A544" s="1" t="s">
         <v>620</v>
       </c>
       <c r="B544" t="s">
@@ -8124,7 +8128,7 @@
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A545" t="s">
+      <c r="A545" s="1" t="s">
         <v>621</v>
       </c>
       <c r="B545" t="s">
@@ -8132,7 +8136,7 @@
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A546" t="s">
+      <c r="A546" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B546" t="s">
@@ -8140,7 +8144,7 @@
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A547" t="s">
+      <c r="A547" s="1" t="s">
         <v>622</v>
       </c>
       <c r="B547" t="s">
@@ -8148,7 +8152,7 @@
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A548" t="s">
+      <c r="A548" s="1" t="s">
         <v>623</v>
       </c>
       <c r="B548" t="s">
@@ -8156,7 +8160,7 @@
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A549" t="s">
+      <c r="A549" s="1" t="s">
         <v>624</v>
       </c>
       <c r="B549" t="s">
@@ -8164,7 +8168,7 @@
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A550" t="s">
+      <c r="A550" s="1" t="s">
         <v>625</v>
       </c>
       <c r="B550" t="s">
@@ -8172,7 +8176,7 @@
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A551" t="s">
+      <c r="A551" s="1" t="s">
         <v>626</v>
       </c>
       <c r="B551" t="s">
@@ -8180,7 +8184,7 @@
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A552" t="s">
+      <c r="A552" s="1" t="s">
         <v>627</v>
       </c>
       <c r="B552" t="s">
@@ -8188,7 +8192,7 @@
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A553" t="s">
+      <c r="A553" s="1" t="s">
         <v>628</v>
       </c>
       <c r="B553" t="s">
@@ -8196,7 +8200,7 @@
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A554" t="s">
+      <c r="A554" s="1" t="s">
         <v>629</v>
       </c>
       <c r="B554" t="s">
@@ -8204,7 +8208,7 @@
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A555" t="s">
+      <c r="A555" s="1" t="s">
         <v>630</v>
       </c>
       <c r="B555" t="s">
@@ -8212,7 +8216,7 @@
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A556" t="s">
+      <c r="A556" s="1" t="s">
         <v>631</v>
       </c>
       <c r="B556" t="s">
@@ -8220,7 +8224,7 @@
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A557" t="s">
+      <c r="A557" s="1" t="s">
         <v>632</v>
       </c>
       <c r="B557" t="s">
@@ -8228,7 +8232,7 @@
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A558" t="s">
+      <c r="A558" s="1" t="s">
         <v>633</v>
       </c>
       <c r="B558" t="s">
@@ -8236,7 +8240,7 @@
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A559" t="s">
+      <c r="A559" s="1" t="s">
         <v>634</v>
       </c>
       <c r="B559" t="s">
@@ -8244,7 +8248,7 @@
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A560" t="s">
+      <c r="A560" s="1" t="s">
         <v>635</v>
       </c>
       <c r="B560" t="s">
@@ -8252,7 +8256,7 @@
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A561" t="s">
+      <c r="A561" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B561" t="s">
@@ -8260,7 +8264,7 @@
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A562" t="s">
+      <c r="A562" s="1" t="s">
         <v>637</v>
       </c>
       <c r="B562" t="s">
@@ -8268,7 +8272,7 @@
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A563" t="s">
+      <c r="A563" s="1" t="s">
         <v>638</v>
       </c>
       <c r="B563" t="s">
@@ -8276,7 +8280,7 @@
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A564" t="s">
+      <c r="A564" s="1" t="s">
         <v>639</v>
       </c>
       <c r="B564" t="s">
@@ -8284,7 +8288,7 @@
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A565" t="s">
+      <c r="A565" s="1" t="s">
         <v>640</v>
       </c>
       <c r="B565" t="s">
@@ -8292,7 +8296,7 @@
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A566" t="s">
+      <c r="A566" s="1" t="s">
         <v>641</v>
       </c>
       <c r="B566" t="s">
@@ -8300,7 +8304,7 @@
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A567" t="s">
+      <c r="A567" s="1" t="s">
         <v>642</v>
       </c>
       <c r="B567" t="s">
@@ -8308,7 +8312,7 @@
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A568" t="s">
+      <c r="A568" s="1" t="s">
         <v>643</v>
       </c>
       <c r="B568" t="s">
@@ -8316,7 +8320,7 @@
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A569" t="s">
+      <c r="A569" s="1" t="s">
         <v>644</v>
       </c>
       <c r="B569" t="s">
@@ -8324,7 +8328,7 @@
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A570" t="s">
+      <c r="A570" s="1" t="s">
         <v>645</v>
       </c>
       <c r="B570" t="s">
@@ -8332,7 +8336,7 @@
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A571" t="s">
+      <c r="A571" s="1" t="s">
         <v>646</v>
       </c>
       <c r="B571" t="s">
@@ -8340,7 +8344,7 @@
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A572" t="s">
+      <c r="A572" s="1" t="s">
         <v>647</v>
       </c>
       <c r="B572" t="s">
@@ -8348,7 +8352,7 @@
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A573" t="s">
+      <c r="A573" s="1" t="s">
         <v>648</v>
       </c>
       <c r="B573" t="s">
@@ -8356,7 +8360,7 @@
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A574" t="s">
+      <c r="A574" s="1" t="s">
         <v>649</v>
       </c>
       <c r="B574" t="s">
@@ -8364,7 +8368,7 @@
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A575" t="s">
+      <c r="A575" s="1" t="s">
         <v>650</v>
       </c>
       <c r="B575" t="s">
@@ -8372,7 +8376,7 @@
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A576" t="s">
+      <c r="A576" s="1" t="s">
         <v>651</v>
       </c>
       <c r="B576" t="s">
@@ -8380,7 +8384,7 @@
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A577" t="s">
+      <c r="A577" s="1" t="s">
         <v>652</v>
       </c>
       <c r="B577" t="s">
@@ -8388,7 +8392,7 @@
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A578" t="s">
+      <c r="A578" s="1" t="s">
         <v>653</v>
       </c>
       <c r="B578" t="s">
@@ -8396,7 +8400,7 @@
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A579" t="s">
+      <c r="A579" s="1" t="s">
         <v>654</v>
       </c>
       <c r="B579" t="s">
@@ -8404,7 +8408,7 @@
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A580" t="s">
+      <c r="A580" s="1" t="s">
         <v>655</v>
       </c>
       <c r="B580" t="s">
@@ -8412,7 +8416,7 @@
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A581" t="s">
+      <c r="A581" s="1" t="s">
         <v>656</v>
       </c>
       <c r="B581" t="s">
@@ -8420,7 +8424,7 @@
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A582" t="s">
+      <c r="A582" s="1" t="s">
         <v>657</v>
       </c>
       <c r="B582" t="s">
@@ -8428,7 +8432,7 @@
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A583" t="s">
+      <c r="A583" s="1" t="s">
         <v>658</v>
       </c>
       <c r="B583" t="s">
@@ -8436,7 +8440,7 @@
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A584" t="s">
+      <c r="A584" s="1" t="s">
         <v>659</v>
       </c>
       <c r="B584" t="s">
@@ -8444,7 +8448,7 @@
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A585" t="s">
+      <c r="A585" s="1" t="s">
         <v>660</v>
       </c>
       <c r="B585" t="s">
@@ -8452,7 +8456,7 @@
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A586" t="s">
+      <c r="A586" s="1" t="s">
         <v>661</v>
       </c>
       <c r="B586" t="s">
@@ -8460,7 +8464,7 @@
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A587" t="s">
+      <c r="A587" s="1" t="s">
         <v>662</v>
       </c>
       <c r="B587" t="s">
@@ -8468,7 +8472,7 @@
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A588" t="s">
+      <c r="A588" s="1" t="s">
         <v>663</v>
       </c>
       <c r="B588" t="s">
@@ -8476,7 +8480,7 @@
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A589" t="s">
+      <c r="A589" s="1" t="s">
         <v>664</v>
       </c>
       <c r="B589" t="s">
@@ -8484,7 +8488,7 @@
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A590" t="s">
+      <c r="A590" s="1" t="s">
         <v>665</v>
       </c>
       <c r="B590" t="s">
@@ -8492,7 +8496,7 @@
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A591" t="s">
+      <c r="A591" s="1" t="s">
         <v>666</v>
       </c>
       <c r="B591" t="s">
@@ -8500,7 +8504,7 @@
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A592" t="s">
+      <c r="A592" s="1" t="s">
         <v>667</v>
       </c>
       <c r="B592" t="s">
@@ -8508,7 +8512,7 @@
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A593" t="s">
+      <c r="A593" s="1" t="s">
         <v>668</v>
       </c>
       <c r="B593" t="s">
@@ -8516,7 +8520,7 @@
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A594" t="s">
+      <c r="A594" s="1" t="s">
         <v>669</v>
       </c>
       <c r="B594" t="s">
@@ -8524,7 +8528,7 @@
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A595" t="s">
+      <c r="A595" s="1" t="s">
         <v>670</v>
       </c>
       <c r="B595" t="s">
@@ -8532,7 +8536,7 @@
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A596" t="s">
+      <c r="A596" s="1" t="s">
         <v>671</v>
       </c>
       <c r="B596" t="s">
@@ -8540,7 +8544,7 @@
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A597" t="s">
+      <c r="A597" s="1" t="s">
         <v>672</v>
       </c>
       <c r="B597" t="s">
@@ -8548,7 +8552,7 @@
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A598" t="s">
+      <c r="A598" s="1" t="s">
         <v>673</v>
       </c>
       <c r="B598" t="s">
@@ -8556,7 +8560,7 @@
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A599" t="s">
+      <c r="A599" s="1" t="s">
         <v>674</v>
       </c>
       <c r="B599" t="s">
@@ -8564,7 +8568,7 @@
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A600" t="s">
+      <c r="A600" s="1" t="s">
         <v>675</v>
       </c>
       <c r="B600" t="s">
@@ -8572,7 +8576,7 @@
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A601" t="s">
+      <c r="A601" s="1" t="s">
         <v>676</v>
       </c>
       <c r="B601" t="s">
@@ -8580,7 +8584,7 @@
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A602" t="s">
+      <c r="A602" s="1" t="s">
         <v>677</v>
       </c>
       <c r="B602" t="s">
@@ -8588,7 +8592,7 @@
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A603" t="s">
+      <c r="A603" s="1" t="s">
         <v>678</v>
       </c>
       <c r="B603" t="s">
@@ -8596,7 +8600,7 @@
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A604" t="s">
+      <c r="A604" s="1" t="s">
         <v>679</v>
       </c>
       <c r="B604" t="s">
@@ -8604,7 +8608,7 @@
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A605" t="s">
+      <c r="A605" s="1" t="s">
         <v>680</v>
       </c>
       <c r="B605" t="s">
@@ -8612,7 +8616,7 @@
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A606" t="s">
+      <c r="A606" s="1" t="s">
         <v>681</v>
       </c>
       <c r="B606" t="s">
@@ -8620,7 +8624,7 @@
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A607" t="s">
+      <c r="A607" s="1" t="s">
         <v>682</v>
       </c>
       <c r="B607" t="s">
@@ -8628,7 +8632,7 @@
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A608" t="s">
+      <c r="A608" s="1" t="s">
         <v>683</v>
       </c>
       <c r="B608" t="s">
@@ -8636,7 +8640,7 @@
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A609" t="s">
+      <c r="A609" s="1" t="s">
         <v>684</v>
       </c>
       <c r="B609" t="s">
@@ -8644,7 +8648,7 @@
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A610" t="s">
+      <c r="A610" s="1" t="s">
         <v>685</v>
       </c>
       <c r="B610" t="s">
@@ -8652,7 +8656,7 @@
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A611" t="s">
+      <c r="A611" s="1" t="s">
         <v>686</v>
       </c>
       <c r="B611" t="s">
@@ -8660,7 +8664,7 @@
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A612" t="s">
+      <c r="A612" s="1" t="s">
         <v>687</v>
       </c>
       <c r="B612" t="s">
@@ -8668,7 +8672,7 @@
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A613" t="s">
+      <c r="A613" s="1" t="s">
         <v>688</v>
       </c>
       <c r="B613" t="s">
@@ -8676,7 +8680,7 @@
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A614" t="s">
+      <c r="A614" s="1" t="s">
         <v>689</v>
       </c>
       <c r="B614" t="s">
@@ -8684,7 +8688,7 @@
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A615" t="s">
+      <c r="A615" s="1" t="s">
         <v>690</v>
       </c>
       <c r="B615" t="s">
@@ -8692,7 +8696,7 @@
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A616" t="s">
+      <c r="A616" s="1" t="s">
         <v>691</v>
       </c>
       <c r="B616" t="s">
@@ -8700,7 +8704,7 @@
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A617" t="s">
+      <c r="A617" s="1" t="s">
         <v>692</v>
       </c>
       <c r="B617" t="s">
@@ -8708,7 +8712,7 @@
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A618" t="s">
+      <c r="A618" s="1" t="s">
         <v>693</v>
       </c>
       <c r="B618" t="s">
@@ -8716,7 +8720,7 @@
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A619" t="s">
+      <c r="A619" s="1" t="s">
         <v>694</v>
       </c>
       <c r="B619" t="s">
@@ -8724,7 +8728,7 @@
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A620" t="s">
+      <c r="A620" s="1" t="s">
         <v>695</v>
       </c>
       <c r="B620" t="s">
@@ -8732,7 +8736,7 @@
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A621" t="s">
+      <c r="A621" s="1" t="s">
         <v>696</v>
       </c>
       <c r="B621" t="s">
@@ -8740,7 +8744,7 @@
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A622" t="s">
+      <c r="A622" s="1" t="s">
         <v>697</v>
       </c>
       <c r="B622" t="s">
@@ -8748,7 +8752,7 @@
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A623" t="s">
+      <c r="A623" s="1" t="s">
         <v>698</v>
       </c>
       <c r="B623" t="s">
@@ -8756,7 +8760,7 @@
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A624" t="s">
+      <c r="A624" s="1" t="s">
         <v>699</v>
       </c>
       <c r="B624" t="s">
@@ -8764,7 +8768,7 @@
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A625" t="s">
+      <c r="A625" s="1" t="s">
         <v>700</v>
       </c>
       <c r="B625" t="s">
@@ -8772,7 +8776,7 @@
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A626" t="s">
+      <c r="A626" s="1" t="s">
         <v>701</v>
       </c>
       <c r="B626" t="s">
@@ -8780,7 +8784,7 @@
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A627" t="s">
+      <c r="A627" s="1" t="s">
         <v>702</v>
       </c>
       <c r="B627" t="s">
@@ -8788,7 +8792,7 @@
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A628" t="s">
+      <c r="A628" s="1" t="s">
         <v>703</v>
       </c>
       <c r="B628" t="s">
@@ -8796,7 +8800,7 @@
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A629" t="s">
+      <c r="A629" s="1" t="s">
         <v>704</v>
       </c>
       <c r="B629" t="s">
@@ -8804,7 +8808,7 @@
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A630" t="s">
+      <c r="A630" s="1" t="s">
         <v>705</v>
       </c>
       <c r="B630" t="s">
@@ -8812,7 +8816,7 @@
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A631" t="s">
+      <c r="A631" s="1" t="s">
         <v>706</v>
       </c>
       <c r="B631" t="s">
@@ -8820,7 +8824,7 @@
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A632" t="s">
+      <c r="A632" s="1" t="s">
         <v>707</v>
       </c>
       <c r="B632" t="s">
@@ -8828,7 +8832,7 @@
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A633" t="s">
+      <c r="A633" s="1" t="s">
         <v>708</v>
       </c>
       <c r="B633" t="s">
@@ -8836,7 +8840,7 @@
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A634" t="s">
+      <c r="A634" s="1" t="s">
         <v>709</v>
       </c>
       <c r="B634" t="s">
@@ -8844,7 +8848,7 @@
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A635" t="s">
+      <c r="A635" s="1" t="s">
         <v>710</v>
       </c>
       <c r="B635" t="s">
@@ -8852,7 +8856,7 @@
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A636" t="s">
+      <c r="A636" s="1" t="s">
         <v>711</v>
       </c>
       <c r="B636" t="s">
@@ -8860,7 +8864,7 @@
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A637" t="s">
+      <c r="A637" s="1" t="s">
         <v>712</v>
       </c>
       <c r="B637" t="s">
@@ -8868,7 +8872,7 @@
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A638" t="s">
+      <c r="A638" s="1" t="s">
         <v>713</v>
       </c>
       <c r="B638" t="s">
@@ -8876,7 +8880,7 @@
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A639" t="s">
+      <c r="A639" s="1" t="s">
         <v>714</v>
       </c>
       <c r="B639" t="s">
@@ -8884,7 +8888,7 @@
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A640" t="s">
+      <c r="A640" s="1" t="s">
         <v>715</v>
       </c>
       <c r="B640" t="s">
@@ -8892,7 +8896,7 @@
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A641" t="s">
+      <c r="A641" s="1" t="s">
         <v>716</v>
       </c>
       <c r="B641" t="s">
@@ -8900,7 +8904,7 @@
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A642" t="s">
+      <c r="A642" s="1" t="s">
         <v>717</v>
       </c>
       <c r="B642" t="s">
@@ -8908,7 +8912,7 @@
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A643" t="s">
+      <c r="A643" s="1" t="s">
         <v>718</v>
       </c>
       <c r="B643" t="s">
@@ -8916,7 +8920,7 @@
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A644" t="s">
+      <c r="A644" s="1" t="s">
         <v>719</v>
       </c>
       <c r="B644" t="s">
@@ -8924,7 +8928,7 @@
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A645" t="s">
+      <c r="A645" s="1" t="s">
         <v>720</v>
       </c>
       <c r="B645" t="s">
@@ -8932,7 +8936,7 @@
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A646" t="s">
+      <c r="A646" s="1" t="s">
         <v>721</v>
       </c>
       <c r="B646" t="s">
@@ -8940,7 +8944,7 @@
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A647" t="s">
+      <c r="A647" s="1" t="s">
         <v>722</v>
       </c>
       <c r="B647" t="s">
@@ -8948,7 +8952,7 @@
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A648" t="s">
+      <c r="A648" s="1" t="s">
         <v>723</v>
       </c>
       <c r="B648" t="s">
@@ -8956,7 +8960,7 @@
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A649" t="s">
+      <c r="A649" s="1" t="s">
         <v>724</v>
       </c>
       <c r="B649" t="s">
@@ -8964,7 +8968,7 @@
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A650" t="s">
+      <c r="A650" s="1" t="s">
         <v>725</v>
       </c>
       <c r="B650" t="s">
@@ -8972,7 +8976,7 @@
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A651" t="s">
+      <c r="A651" s="1" t="s">
         <v>726</v>
       </c>
       <c r="B651" t="s">
@@ -8980,7 +8984,7 @@
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A652" t="s">
+      <c r="A652" s="1" t="s">
         <v>727</v>
       </c>
       <c r="B652" t="s">
@@ -8988,7 +8992,7 @@
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A653" t="s">
+      <c r="A653" s="1" t="s">
         <v>728</v>
       </c>
       <c r="B653" t="s">
@@ -8996,7 +9000,7 @@
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A654" t="s">
+      <c r="A654" s="1" t="s">
         <v>729</v>
       </c>
       <c r="B654" t="s">
@@ -9004,7 +9008,7 @@
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A655" t="s">
+      <c r="A655" s="1" t="s">
         <v>730</v>
       </c>
       <c r="B655" t="s">
@@ -9012,7 +9016,7 @@
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A656" t="s">
+      <c r="A656" s="1" t="s">
         <v>731</v>
       </c>
       <c r="B656" t="s">
@@ -9020,7 +9024,7 @@
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A657" t="s">
+      <c r="A657" s="1" t="s">
         <v>732</v>
       </c>
       <c r="B657" t="s">
@@ -9028,7 +9032,7 @@
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A658" t="s">
+      <c r="A658" s="1" t="s">
         <v>733</v>
       </c>
       <c r="B658" t="s">
@@ -9036,7 +9040,7 @@
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A659" t="s">
+      <c r="A659" s="1" t="s">
         <v>734</v>
       </c>
       <c r="B659" t="s">
@@ -9044,7 +9048,7 @@
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A660" t="s">
+      <c r="A660" s="1" t="s">
         <v>735</v>
       </c>
       <c r="B660" t="s">
@@ -9052,7 +9056,7 @@
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A661" t="s">
+      <c r="A661" s="1" t="s">
         <v>736</v>
       </c>
       <c r="B661" t="s">
@@ -9060,7 +9064,7 @@
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A662" t="s">
+      <c r="A662" s="1" t="s">
         <v>737</v>
       </c>
       <c r="B662" t="s">
@@ -9068,7 +9072,7 @@
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A663" t="s">
+      <c r="A663" s="1" t="s">
         <v>738</v>
       </c>
       <c r="B663" t="s">
@@ -9076,7 +9080,7 @@
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A664" t="s">
+      <c r="A664" s="1" t="s">
         <v>739</v>
       </c>
       <c r="B664" t="s">
@@ -9084,7 +9088,7 @@
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A665" t="s">
+      <c r="A665" s="1" t="s">
         <v>740</v>
       </c>
       <c r="B665" t="s">
@@ -9092,7 +9096,7 @@
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A666" t="s">
+      <c r="A666" s="1" t="s">
         <v>741</v>
       </c>
       <c r="B666" t="s">
@@ -9100,7 +9104,7 @@
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A667" t="s">
+      <c r="A667" s="1" t="s">
         <v>742</v>
       </c>
       <c r="B667" t="s">
@@ -9108,7 +9112,7 @@
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A668" t="s">
+      <c r="A668" s="1" t="s">
         <v>743</v>
       </c>
       <c r="B668" t="s">
@@ -9116,7 +9120,7 @@
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A669" t="s">
+      <c r="A669" s="1" t="s">
         <v>744</v>
       </c>
       <c r="B669" t="s">
@@ -9124,7 +9128,7 @@
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A670" t="s">
+      <c r="A670" s="1" t="s">
         <v>745</v>
       </c>
       <c r="B670" t="s">
@@ -9132,7 +9136,7 @@
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A671" t="s">
+      <c r="A671" s="1" t="s">
         <v>746</v>
       </c>
       <c r="B671" t="s">
@@ -9140,7 +9144,7 @@
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A672" t="s">
+      <c r="A672" s="1" t="s">
         <v>747</v>
       </c>
       <c r="B672" t="s">
@@ -9148,7 +9152,7 @@
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A673" t="s">
+      <c r="A673" s="1" t="s">
         <v>748</v>
       </c>
       <c r="B673" t="s">
@@ -9156,7 +9160,7 @@
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A674" t="s">
+      <c r="A674" s="1" t="s">
         <v>749</v>
       </c>
       <c r="B674" t="s">
@@ -9164,7 +9168,7 @@
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A675" t="s">
+      <c r="A675" s="1" t="s">
         <v>750</v>
       </c>
       <c r="B675" t="s">
@@ -9172,7 +9176,7 @@
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A676" t="s">
+      <c r="A676" s="1" t="s">
         <v>751</v>
       </c>
       <c r="B676" t="s">
@@ -9180,7 +9184,7 @@
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A677" t="s">
+      <c r="A677" s="1" t="s">
         <v>752</v>
       </c>
       <c r="B677" t="s">
@@ -9188,7 +9192,7 @@
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A678" t="s">
+      <c r="A678" s="1" t="s">
         <v>753</v>
       </c>
       <c r="B678" t="s">
@@ -9196,7 +9200,7 @@
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A679" t="s">
+      <c r="A679" s="1" t="s">
         <v>754</v>
       </c>
       <c r="B679" t="s">
@@ -9204,7 +9208,7 @@
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A680" t="s">
+      <c r="A680" s="1" t="s">
         <v>755</v>
       </c>
       <c r="B680" t="s">
@@ -9212,7 +9216,7 @@
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A681" t="s">
+      <c r="A681" s="1" t="s">
         <v>756</v>
       </c>
       <c r="B681" t="s">
@@ -9220,7 +9224,7 @@
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A682" t="s">
+      <c r="A682" s="1" t="s">
         <v>757</v>
       </c>
       <c r="B682" t="s">
@@ -9228,7 +9232,7 @@
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A683" t="s">
+      <c r="A683" s="1" t="s">
         <v>758</v>
       </c>
       <c r="B683" t="s">
@@ -9236,7 +9240,7 @@
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A684" t="s">
+      <c r="A684" s="1" t="s">
         <v>759</v>
       </c>
       <c r="B684" t="s">
@@ -9244,7 +9248,7 @@
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A685" t="s">
+      <c r="A685" s="1" t="s">
         <v>760</v>
       </c>
       <c r="B685" t="s">
@@ -9252,7 +9256,7 @@
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A686" t="s">
+      <c r="A686" s="1" t="s">
         <v>761</v>
       </c>
       <c r="B686" t="s">
@@ -9260,7 +9264,7 @@
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A687" t="s">
+      <c r="A687" s="1" t="s">
         <v>762</v>
       </c>
       <c r="B687" t="s">
@@ -9268,7 +9272,7 @@
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A688" t="s">
+      <c r="A688" s="1" t="s">
         <v>763</v>
       </c>
       <c r="B688" t="s">
@@ -9276,7 +9280,7 @@
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A689" t="s">
+      <c r="A689" s="1" t="s">
         <v>764</v>
       </c>
       <c r="B689" t="s">
@@ -9284,7 +9288,7 @@
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A690" t="s">
+      <c r="A690" s="1" t="s">
         <v>765</v>
       </c>
       <c r="B690" t="s">
@@ -9292,7 +9296,7 @@
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A691" t="s">
+      <c r="A691" s="1" t="s">
         <v>766</v>
       </c>
       <c r="B691" t="s">
@@ -9300,7 +9304,7 @@
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A692" t="s">
+      <c r="A692" s="1" t="s">
         <v>767</v>
       </c>
       <c r="B692" t="s">
@@ -9308,7 +9312,7 @@
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A693" t="s">
+      <c r="A693" s="1" t="s">
         <v>768</v>
       </c>
       <c r="B693" t="s">
@@ -9316,7 +9320,7 @@
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A694" t="s">
+      <c r="A694" s="1" t="s">
         <v>769</v>
       </c>
       <c r="B694" t="s">
@@ -9324,7 +9328,7 @@
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A695" t="s">
+      <c r="A695" s="1" t="s">
         <v>770</v>
       </c>
       <c r="B695" t="s">
@@ -9332,7 +9336,7 @@
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A696" t="s">
+      <c r="A696" s="1" t="s">
         <v>771</v>
       </c>
       <c r="B696" t="s">
@@ -9340,7 +9344,7 @@
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A697" t="s">
+      <c r="A697" s="1" t="s">
         <v>772</v>
       </c>
       <c r="B697" t="s">
@@ -9348,7 +9352,7 @@
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A698" t="s">
+      <c r="A698" s="1" t="s">
         <v>773</v>
       </c>
       <c r="B698" t="s">
@@ -9356,7 +9360,7 @@
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A699" t="s">
+      <c r="A699" s="1" t="s">
         <v>774</v>
       </c>
       <c r="B699" t="s">
@@ -9364,7 +9368,7 @@
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A700" t="s">
+      <c r="A700" s="1" t="s">
         <v>775</v>
       </c>
       <c r="B700" t="s">
@@ -9372,7 +9376,7 @@
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A701" t="s">
+      <c r="A701" s="1" t="s">
         <v>776</v>
       </c>
       <c r="B701" t="s">
@@ -9380,7 +9384,7 @@
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A702" t="s">
+      <c r="A702" s="1" t="s">
         <v>777</v>
       </c>
       <c r="B702" t="s">
@@ -9388,7 +9392,7 @@
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A703" t="s">
+      <c r="A703" s="1" t="s">
         <v>778</v>
       </c>
       <c r="B703" t="s">
@@ -9396,7 +9400,7 @@
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A704" t="s">
+      <c r="A704" s="1" t="s">
         <v>779</v>
       </c>
       <c r="B704" t="s">
@@ -9404,7 +9408,7 @@
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A705" t="s">
+      <c r="A705" s="1" t="s">
         <v>780</v>
       </c>
       <c r="B705" t="s">
@@ -9412,7 +9416,7 @@
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A706" t="s">
+      <c r="A706" s="1" t="s">
         <v>781</v>
       </c>
       <c r="B706" t="s">
@@ -9420,7 +9424,7 @@
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A707" t="s">
+      <c r="A707" s="1" t="s">
         <v>782</v>
       </c>
       <c r="B707" t="s">
@@ -9428,7 +9432,7 @@
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A708" t="s">
+      <c r="A708" s="1" t="s">
         <v>783</v>
       </c>
       <c r="B708" t="s">
@@ -9436,7 +9440,7 @@
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A709" t="s">
+      <c r="A709" s="1" t="s">
         <v>784</v>
       </c>
       <c r="B709" t="s">
@@ -9444,7 +9448,7 @@
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A710" t="s">
+      <c r="A710" s="1" t="s">
         <v>785</v>
       </c>
       <c r="B710" t="s">
@@ -9452,7 +9456,7 @@
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A711" t="s">
+      <c r="A711" s="1" t="s">
         <v>786</v>
       </c>
       <c r="B711" t="s">
@@ -9460,7 +9464,7 @@
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A712" t="s">
+      <c r="A712" s="1" t="s">
         <v>787</v>
       </c>
       <c r="B712" t="s">
@@ -9468,7 +9472,7 @@
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A713" t="s">
+      <c r="A713" s="1" t="s">
         <v>788</v>
       </c>
       <c r="B713" t="s">
@@ -9476,7 +9480,7 @@
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A714" t="s">
+      <c r="A714" s="1" t="s">
         <v>789</v>
       </c>
       <c r="B714" t="s">
@@ -9484,7 +9488,7 @@
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A715" t="s">
+      <c r="A715" s="1" t="s">
         <v>790</v>
       </c>
       <c r="B715" t="s">
@@ -9492,7 +9496,7 @@
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A716" t="s">
+      <c r="A716" s="1" t="s">
         <v>791</v>
       </c>
       <c r="B716" t="s">
@@ -9500,7 +9504,7 @@
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A717" t="s">
+      <c r="A717" s="1" t="s">
         <v>792</v>
       </c>
       <c r="B717" t="s">
@@ -9508,7 +9512,7 @@
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A718" t="s">
+      <c r="A718" s="1" t="s">
         <v>793</v>
       </c>
       <c r="B718" t="s">
@@ -9516,7 +9520,7 @@
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A719" t="s">
+      <c r="A719" s="1" t="s">
         <v>794</v>
       </c>
       <c r="B719" t="s">
@@ -9524,7 +9528,7 @@
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A720" t="s">
+      <c r="A720" s="1" t="s">
         <v>795</v>
       </c>
       <c r="B720" t="s">
@@ -9532,7 +9536,7 @@
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A721" t="s">
+      <c r="A721" s="1" t="s">
         <v>796</v>
       </c>
       <c r="B721" t="s">
@@ -9540,7 +9544,7 @@
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A722" t="s">
+      <c r="A722" s="1" t="s">
         <v>797</v>
       </c>
       <c r="B722" t="s">
@@ -9548,7 +9552,7 @@
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A723" t="s">
+      <c r="A723" s="1" t="s">
         <v>798</v>
       </c>
       <c r="B723" t="s">
@@ -9556,7 +9560,7 @@
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A724" t="s">
+      <c r="A724" s="1" t="s">
         <v>799</v>
       </c>
       <c r="B724" t="s">
@@ -9564,7 +9568,7 @@
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A725" t="s">
+      <c r="A725" s="1" t="s">
         <v>800</v>
       </c>
       <c r="B725" t="s">
@@ -9572,7 +9576,7 @@
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A726" t="s">
+      <c r="A726" s="1" t="s">
         <v>801</v>
       </c>
       <c r="B726" t="s">
@@ -9580,7 +9584,7 @@
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A727" t="s">
+      <c r="A727" s="1" t="s">
         <v>802</v>
       </c>
       <c r="B727" t="s">
@@ -9588,7 +9592,7 @@
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A728" t="s">
+      <c r="A728" s="1" t="s">
         <v>803</v>
       </c>
       <c r="B728" t="s">
@@ -9596,7 +9600,7 @@
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A729" t="s">
+      <c r="A729" s="1" t="s">
         <v>804</v>
       </c>
       <c r="B729" t="s">
@@ -9604,7 +9608,7 @@
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A730" t="s">
+      <c r="A730" s="1" t="s">
         <v>805</v>
       </c>
       <c r="B730" t="s">
@@ -9612,7 +9616,7 @@
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A731" t="s">
+      <c r="A731" s="1" t="s">
         <v>806</v>
       </c>
       <c r="B731" t="s">
@@ -9620,7 +9624,7 @@
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A732" t="s">
+      <c r="A732" s="1" t="s">
         <v>807</v>
       </c>
       <c r="B732" t="s">
@@ -9628,7 +9632,7 @@
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A733" t="s">
+      <c r="A733" s="1" t="s">
         <v>808</v>
       </c>
       <c r="B733" t="s">
@@ -9636,7 +9640,7 @@
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A734" t="s">
+      <c r="A734" s="1" t="s">
         <v>809</v>
       </c>
       <c r="B734" t="s">
@@ -9644,7 +9648,7 @@
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A735" t="s">
+      <c r="A735" s="1" t="s">
         <v>810</v>
       </c>
       <c r="B735" t="s">
@@ -9652,7 +9656,7 @@
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A736" t="s">
+      <c r="A736" s="1" t="s">
         <v>811</v>
       </c>
       <c r="B736" t="s">
@@ -9660,7 +9664,7 @@
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A737" t="s">
+      <c r="A737" s="1" t="s">
         <v>812</v>
       </c>
       <c r="B737" t="s">
@@ -9668,7 +9672,7 @@
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A738" t="s">
+      <c r="A738" s="1" t="s">
         <v>813</v>
       </c>
       <c r="B738" t="s">
@@ -9676,7 +9680,7 @@
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A739" t="s">
+      <c r="A739" s="1" t="s">
         <v>814</v>
       </c>
       <c r="B739" t="s">
@@ -9684,7 +9688,7 @@
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A740" t="s">
+      <c r="A740" s="1" t="s">
         <v>815</v>
       </c>
       <c r="B740" t="s">
@@ -9692,7 +9696,7 @@
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A741" t="s">
+      <c r="A741" s="1" t="s">
         <v>816</v>
       </c>
       <c r="B741" t="s">
@@ -9700,7 +9704,7 @@
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A742" t="s">
+      <c r="A742" s="1" t="s">
         <v>817</v>
       </c>
       <c r="B742" t="s">
@@ -9708,7 +9712,7 @@
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A743" t="s">
+      <c r="A743" s="1" t="s">
         <v>818</v>
       </c>
       <c r="B743" t="s">
@@ -9716,7 +9720,7 @@
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A744" t="s">
+      <c r="A744" s="1" t="s">
         <v>819</v>
       </c>
       <c r="B744" t="s">
@@ -9724,7 +9728,7 @@
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A745" t="s">
+      <c r="A745" s="1" t="s">
         <v>820</v>
       </c>
       <c r="B745" t="s">
@@ -9732,7 +9736,7 @@
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A746" t="s">
+      <c r="A746" s="1" t="s">
         <v>821</v>
       </c>
       <c r="B746" t="s">
@@ -9740,7 +9744,7 @@
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A747" t="s">
+      <c r="A747" s="1" t="s">
         <v>822</v>
       </c>
       <c r="B747" t="s">
@@ -9748,7 +9752,7 @@
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A748" t="s">
+      <c r="A748" s="1" t="s">
         <v>823</v>
       </c>
       <c r="B748" t="s">
@@ -9756,7 +9760,7 @@
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A749" t="s">
+      <c r="A749" s="1" t="s">
         <v>824</v>
       </c>
       <c r="B749" t="s">
@@ -9764,7 +9768,7 @@
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A750" t="s">
+      <c r="A750" s="1" t="s">
         <v>825</v>
       </c>
       <c r="B750" t="s">
@@ -9772,7 +9776,7 @@
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A751" t="s">
+      <c r="A751" s="1" t="s">
         <v>826</v>
       </c>
       <c r="B751" t="s">
@@ -9780,7 +9784,7 @@
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A752" t="s">
+      <c r="A752" s="1" t="s">
         <v>827</v>
       </c>
       <c r="B752" t="s">
@@ -9788,7 +9792,7 @@
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A753" t="s">
+      <c r="A753" s="1" t="s">
         <v>828</v>
       </c>
       <c r="B753" t="s">
@@ -9796,7 +9800,7 @@
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A754" t="s">
+      <c r="A754" s="1" t="s">
         <v>829</v>
       </c>
       <c r="B754" t="s">
@@ -9804,7 +9808,7 @@
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A755" t="s">
+      <c r="A755" s="1" t="s">
         <v>830</v>
       </c>
       <c r="B755" t="s">
@@ -9812,7 +9816,7 @@
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A756" t="s">
+      <c r="A756" s="1" t="s">
         <v>831</v>
       </c>
       <c r="B756" t="s">
@@ -9820,7 +9824,7 @@
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A757" t="s">
+      <c r="A757" s="1" t="s">
         <v>832</v>
       </c>
       <c r="B757" t="s">
@@ -9828,7 +9832,7 @@
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A758" t="s">
+      <c r="A758" s="1" t="s">
         <v>833</v>
       </c>
       <c r="B758" t="s">
@@ -9836,7 +9840,7 @@
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A759" t="s">
+      <c r="A759" s="1" t="s">
         <v>834</v>
       </c>
       <c r="B759" t="s">
@@ -9844,7 +9848,7 @@
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A760" t="s">
+      <c r="A760" s="1" t="s">
         <v>835</v>
       </c>
       <c r="B760" t="s">
@@ -9852,7 +9856,7 @@
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A761" t="s">
+      <c r="A761" s="1" t="s">
         <v>836</v>
       </c>
       <c r="B761" t="s">
@@ -9860,7 +9864,7 @@
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A762" t="s">
+      <c r="A762" s="1" t="s">
         <v>837</v>
       </c>
       <c r="B762" t="s">
@@ -9868,7 +9872,7 @@
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A763" t="s">
+      <c r="A763" s="1" t="s">
         <v>838</v>
       </c>
       <c r="B763" t="s">
@@ -9876,7 +9880,7 @@
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A764" t="s">
+      <c r="A764" s="1" t="s">
         <v>839</v>
       </c>
       <c r="B764" t="s">
@@ -9884,7 +9888,7 @@
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A765" t="s">
+      <c r="A765" s="1" t="s">
         <v>840</v>
       </c>
       <c r="B765" t="s">
@@ -9892,7 +9896,7 @@
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A766" t="s">
+      <c r="A766" s="1" t="s">
         <v>841</v>
       </c>
       <c r="B766" t="s">
@@ -9900,7 +9904,7 @@
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A767" t="s">
+      <c r="A767" s="1" t="s">
         <v>842</v>
       </c>
       <c r="B767" t="s">
@@ -9908,7 +9912,7 @@
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A768" t="s">
+      <c r="A768" s="1" t="s">
         <v>843</v>
       </c>
       <c r="B768" t="s">
@@ -9916,7 +9920,7 @@
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A769" t="s">
+      <c r="A769" s="1" t="s">
         <v>844</v>
       </c>
       <c r="B769" t="s">
@@ -9924,7 +9928,7 @@
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A770" t="s">
+      <c r="A770" s="1" t="s">
         <v>845</v>
       </c>
       <c r="B770" t="s">
@@ -9932,7 +9936,7 @@
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A771" t="s">
+      <c r="A771" s="1" t="s">
         <v>846</v>
       </c>
       <c r="B771" t="s">
@@ -9940,7 +9944,7 @@
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A772" t="s">
+      <c r="A772" s="1" t="s">
         <v>847</v>
       </c>
       <c r="B772" t="s">
@@ -9948,7 +9952,7 @@
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A773" t="s">
+      <c r="A773" s="1" t="s">
         <v>848</v>
       </c>
       <c r="B773" t="s">
@@ -9956,7 +9960,7 @@
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A774" t="s">
+      <c r="A774" s="1" t="s">
         <v>849</v>
       </c>
       <c r="B774" t="s">
@@ -9964,7 +9968,7 @@
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A775" t="s">
+      <c r="A775" s="1" t="s">
         <v>850</v>
       </c>
       <c r="B775" t="s">
@@ -9972,7 +9976,7 @@
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A776" t="s">
+      <c r="A776" s="1" t="s">
         <v>851</v>
       </c>
       <c r="B776" t="s">
@@ -9980,7 +9984,7 @@
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A777" t="s">
+      <c r="A777" s="1" t="s">
         <v>852</v>
       </c>
       <c r="B777" t="s">
@@ -9988,7 +9992,7 @@
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A778" t="s">
+      <c r="A778" s="1" t="s">
         <v>853</v>
       </c>
       <c r="B778" t="s">
@@ -9996,7 +10000,7 @@
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A779" t="s">
+      <c r="A779" s="1" t="s">
         <v>854</v>
       </c>
       <c r="B779" t="s">
@@ -10004,7 +10008,7 @@
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A780" t="s">
+      <c r="A780" s="1" t="s">
         <v>855</v>
       </c>
       <c r="B780" t="s">
@@ -10012,7 +10016,7 @@
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A781" t="s">
+      <c r="A781" s="1" t="s">
         <v>856</v>
       </c>
       <c r="B781" t="s">
@@ -10020,7 +10024,7 @@
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A782" t="s">
+      <c r="A782" s="1" t="s">
         <v>857</v>
       </c>
       <c r="B782" t="s">
@@ -10028,7 +10032,7 @@
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A783" t="s">
+      <c r="A783" s="1" t="s">
         <v>858</v>
       </c>
       <c r="B783" t="s">
@@ -10036,7 +10040,7 @@
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A784" t="s">
+      <c r="A784" s="1" t="s">
         <v>859</v>
       </c>
       <c r="B784" t="s">
@@ -10044,7 +10048,7 @@
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A785" t="s">
+      <c r="A785" s="1" t="s">
         <v>860</v>
       </c>
       <c r="B785" t="s">
@@ -10052,7 +10056,7 @@
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A786" t="s">
+      <c r="A786" s="1" t="s">
         <v>861</v>
       </c>
       <c r="B786" t="s">
@@ -10060,7 +10064,7 @@
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A787" t="s">
+      <c r="A787" s="1" t="s">
         <v>862</v>
       </c>
       <c r="B787" t="s">
@@ -10068,7 +10072,7 @@
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A788" t="s">
+      <c r="A788" s="1" t="s">
         <v>863</v>
       </c>
       <c r="B788" t="s">
@@ -10076,7 +10080,7 @@
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A789" t="s">
+      <c r="A789" s="1" t="s">
         <v>864</v>
       </c>
       <c r="B789" t="s">
@@ -10084,7 +10088,7 @@
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A790" t="s">
+      <c r="A790" s="1" t="s">
         <v>865</v>
       </c>
       <c r="B790" t="s">
@@ -10092,7 +10096,7 @@
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A791" t="s">
+      <c r="A791" s="1" t="s">
         <v>866</v>
       </c>
       <c r="B791" t="s">
@@ -10100,7 +10104,7 @@
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A792" t="s">
+      <c r="A792" s="1" t="s">
         <v>867</v>
       </c>
       <c r="B792" t="s">
@@ -10108,7 +10112,7 @@
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A793" t="s">
+      <c r="A793" s="1" t="s">
         <v>868</v>
       </c>
       <c r="B793" t="s">
@@ -10116,7 +10120,7 @@
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A794" t="s">
+      <c r="A794" s="1" t="s">
         <v>869</v>
       </c>
       <c r="B794" t="s">
@@ -10124,7 +10128,7 @@
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A795" t="s">
+      <c r="A795" s="1" t="s">
         <v>870</v>
       </c>
       <c r="B795" t="s">
@@ -10132,7 +10136,7 @@
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A796" t="s">
+      <c r="A796" s="1" t="s">
         <v>871</v>
       </c>
       <c r="B796" t="s">
@@ -10140,7 +10144,7 @@
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A797" t="s">
+      <c r="A797" s="1" t="s">
         <v>872</v>
       </c>
       <c r="B797" t="s">
@@ -10148,7 +10152,7 @@
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A798" t="s">
+      <c r="A798" s="1" t="s">
         <v>873</v>
       </c>
       <c r="B798" t="s">
@@ -10156,7 +10160,7 @@
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A799" t="s">
+      <c r="A799" s="1" t="s">
         <v>874</v>
       </c>
       <c r="B799" t="s">
@@ -10164,7 +10168,7 @@
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A800" t="s">
+      <c r="A800" s="1" t="s">
         <v>875</v>
       </c>
       <c r="B800" t="s">
@@ -10172,7 +10176,7 @@
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A801" t="s">
+      <c r="A801" s="1" t="s">
         <v>876</v>
       </c>
       <c r="B801" t="s">
@@ -10180,7 +10184,7 @@
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A802" t="s">
+      <c r="A802" s="1" t="s">
         <v>877</v>
       </c>
       <c r="B802" t="s">
@@ -10188,7 +10192,7 @@
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A803" t="s">
+      <c r="A803" s="1" t="s">
         <v>878</v>
       </c>
       <c r="B803" t="s">
@@ -10196,7 +10200,7 @@
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A804" t="s">
+      <c r="A804" s="1" t="s">
         <v>879</v>
       </c>
       <c r="B804" t="s">
@@ -10204,7 +10208,7 @@
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A805" t="s">
+      <c r="A805" s="1" t="s">
         <v>880</v>
       </c>
       <c r="B805" t="s">
@@ -10212,7 +10216,7 @@
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A806" t="s">
+      <c r="A806" s="1" t="s">
         <v>881</v>
       </c>
       <c r="B806" t="s">
@@ -10220,7 +10224,7 @@
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A807" t="s">
+      <c r="A807" s="1" t="s">
         <v>882</v>
       </c>
       <c r="B807" t="s">
@@ -10228,7 +10232,7 @@
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A808" t="s">
+      <c r="A808" s="1" t="s">
         <v>883</v>
       </c>
       <c r="B808" t="s">
@@ -10236,7 +10240,7 @@
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A809" t="s">
+      <c r="A809" s="1" t="s">
         <v>884</v>
       </c>
       <c r="B809" t="s">
@@ -10244,7 +10248,7 @@
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A810" t="s">
+      <c r="A810" s="1" t="s">
         <v>885</v>
       </c>
       <c r="B810" t="s">
@@ -10252,7 +10256,7 @@
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A811" t="s">
+      <c r="A811" s="1" t="s">
         <v>886</v>
       </c>
       <c r="B811" t="s">
@@ -10260,7 +10264,7 @@
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A812" t="s">
+      <c r="A812" s="1" t="s">
         <v>887</v>
       </c>
       <c r="B812" t="s">
@@ -10268,7 +10272,7 @@
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A813" t="s">
+      <c r="A813" s="1" t="s">
         <v>888</v>
       </c>
       <c r="B813" t="s">
@@ -10276,7 +10280,7 @@
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A814" t="s">
+      <c r="A814" s="1" t="s">
         <v>889</v>
       </c>
       <c r="B814" t="s">
@@ -10284,7 +10288,7 @@
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A815" t="s">
+      <c r="A815" s="1" t="s">
         <v>890</v>
       </c>
       <c r="B815" t="s">
@@ -10292,7 +10296,7 @@
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A816" t="s">
+      <c r="A816" s="1" t="s">
         <v>891</v>
       </c>
       <c r="B816" t="s">
@@ -10300,7 +10304,7 @@
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A817" t="s">
+      <c r="A817" s="1" t="s">
         <v>892</v>
       </c>
       <c r="B817" t="s">
@@ -10308,7 +10312,7 @@
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A818" t="s">
+      <c r="A818" s="1" t="s">
         <v>893</v>
       </c>
       <c r="B818" t="s">
@@ -10316,7 +10320,7 @@
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A819" t="s">
+      <c r="A819" s="1" t="s">
         <v>894</v>
       </c>
       <c r="B819" t="s">
@@ -10324,7 +10328,7 @@
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A820" t="s">
+      <c r="A820" s="1" t="s">
         <v>895</v>
       </c>
       <c r="B820" t="s">
@@ -10332,7 +10336,7 @@
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A821" t="s">
+      <c r="A821" s="1" t="s">
         <v>896</v>
       </c>
       <c r="B821" t="s">
@@ -10340,7 +10344,7 @@
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A822" t="s">
+      <c r="A822" s="1" t="s">
         <v>897</v>
       </c>
       <c r="B822" t="s">
@@ -10348,7 +10352,7 @@
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A823" t="s">
+      <c r="A823" s="1" t="s">
         <v>898</v>
       </c>
       <c r="B823" t="s">
@@ -10356,7 +10360,7 @@
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A824" t="s">
+      <c r="A824" s="1" t="s">
         <v>899</v>
       </c>
       <c r="B824" t="s">
@@ -10364,7 +10368,7 @@
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A825" t="s">
+      <c r="A825" s="1" t="s">
         <v>900</v>
       </c>
       <c r="B825" t="s">
@@ -10372,7 +10376,7 @@
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A826" t="s">
+      <c r="A826" s="1" t="s">
         <v>901</v>
       </c>
       <c r="B826" t="s">
@@ -10380,7 +10384,7 @@
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A827" t="s">
+      <c r="A827" s="1" t="s">
         <v>902</v>
       </c>
       <c r="B827" t="s">
@@ -10388,7 +10392,7 @@
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A828" t="s">
+      <c r="A828" s="1" t="s">
         <v>903</v>
       </c>
       <c r="B828" t="s">
@@ -10396,7 +10400,7 @@
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A829" t="s">
+      <c r="A829" s="1" t="s">
         <v>904</v>
       </c>
       <c r="B829" t="s">
@@ -10404,7 +10408,7 @@
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A830" t="s">
+      <c r="A830" s="1" t="s">
         <v>905</v>
       </c>
       <c r="B830" t="s">
@@ -10412,7 +10416,7 @@
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A831" t="s">
+      <c r="A831" s="1" t="s">
         <v>906</v>
       </c>
       <c r="B831" t="s">
@@ -10420,7 +10424,7 @@
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A832" t="s">
+      <c r="A832" s="1" t="s">
         <v>907</v>
       </c>
       <c r="B832" t="s">
@@ -10428,7 +10432,7 @@
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A833" t="s">
+      <c r="A833" s="1" t="s">
         <v>908</v>
       </c>
       <c r="B833" t="s">
@@ -10436,7 +10440,7 @@
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A834" t="s">
+      <c r="A834" s="1" t="s">
         <v>909</v>
       </c>
       <c r="B834" t="s">
@@ -10444,7 +10448,7 @@
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A835" t="s">
+      <c r="A835" s="1" t="s">
         <v>910</v>
       </c>
       <c r="B835" t="s">
@@ -10452,7 +10456,7 @@
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A836" t="s">
+      <c r="A836" s="1" t="s">
         <v>911</v>
       </c>
       <c r="B836" t="s">
@@ -10460,7 +10464,7 @@
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A837" t="s">
+      <c r="A837" s="1" t="s">
         <v>912</v>
       </c>
       <c r="B837" t="s">
@@ -10468,7 +10472,7 @@
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A838" t="s">
+      <c r="A838" s="1" t="s">
         <v>913</v>
       </c>
       <c r="B838" t="s">
@@ -10476,7 +10480,7 @@
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A839" t="s">
+      <c r="A839" s="1" t="s">
         <v>914</v>
       </c>
       <c r="B839" t="s">
@@ -10484,7 +10488,7 @@
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A840" t="s">
+      <c r="A840" s="1" t="s">
         <v>915</v>
       </c>
       <c r="B840" t="s">
@@ -10492,7 +10496,7 @@
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A841" t="s">
+      <c r="A841" s="1" t="s">
         <v>916</v>
       </c>
       <c r="B841" t="s">
@@ -10500,7 +10504,7 @@
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A842" t="s">
+      <c r="A842" s="1" t="s">
         <v>917</v>
       </c>
       <c r="B842" t="s">
@@ -10508,7 +10512,7 @@
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A843" t="s">
+      <c r="A843" s="1" t="s">
         <v>918</v>
       </c>
       <c r="B843" t="s">
@@ -10516,7 +10520,7 @@
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A844" t="s">
+      <c r="A844" s="1" t="s">
         <v>919</v>
       </c>
       <c r="B844" t="s">
@@ -10524,7 +10528,7 @@
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A845" t="s">
+      <c r="A845" s="1" t="s">
         <v>920</v>
       </c>
       <c r="B845" t="s">
@@ -10532,7 +10536,7 @@
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A846" t="s">
+      <c r="A846" s="1" t="s">
         <v>921</v>
       </c>
       <c r="B846" t="s">
@@ -10540,7 +10544,7 @@
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A847" t="s">
+      <c r="A847" s="1" t="s">
         <v>922</v>
       </c>
       <c r="B847" t="s">
@@ -10548,7 +10552,7 @@
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A848" t="s">
+      <c r="A848" s="1" t="s">
         <v>923</v>
       </c>
       <c r="B848" t="s">
@@ -10556,7 +10560,7 @@
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A849" t="s">
+      <c r="A849" s="1" t="s">
         <v>924</v>
       </c>
       <c r="B849" t="s">
@@ -10564,7 +10568,7 @@
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A850" t="s">
+      <c r="A850" s="1" t="s">
         <v>925</v>
       </c>
       <c r="B850" t="s">
@@ -10572,7 +10576,7 @@
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A851" t="s">
+      <c r="A851" s="1" t="s">
         <v>926</v>
       </c>
       <c r="B851" t="s">
@@ -10580,7 +10584,7 @@
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A852" t="s">
+      <c r="A852" s="1" t="s">
         <v>927</v>
       </c>
       <c r="B852" t="s">
@@ -10588,7 +10592,7 @@
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A853" t="s">
+      <c r="A853" s="1" t="s">
         <v>928</v>
       </c>
       <c r="B853" t="s">
@@ -10596,7 +10600,7 @@
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A854" t="s">
+      <c r="A854" s="1" t="s">
         <v>929</v>
       </c>
       <c r="B854" t="s">
@@ -10604,7 +10608,7 @@
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A855" t="s">
+      <c r="A855" s="1" t="s">
         <v>930</v>
       </c>
       <c r="B855" t="s">
@@ -10612,7 +10616,7 @@
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A856" t="s">
+      <c r="A856" s="1" t="s">
         <v>931</v>
       </c>
       <c r="B856" t="s">
@@ -10620,7 +10624,7 @@
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A857" t="s">
+      <c r="A857" s="1" t="s">
         <v>932</v>
       </c>
       <c r="B857" t="s">
@@ -10628,7 +10632,7 @@
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A858" t="s">
+      <c r="A858" s="1" t="s">
         <v>933</v>
       </c>
       <c r="B858" t="s">
@@ -10636,7 +10640,7 @@
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A859" t="s">
+      <c r="A859" s="1" t="s">
         <v>934</v>
       </c>
       <c r="B859" t="s">
@@ -10644,7 +10648,7 @@
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A860" t="s">
+      <c r="A860" s="1" t="s">
         <v>935</v>
       </c>
       <c r="B860" t="s">
@@ -10652,7 +10656,7 @@
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A861" t="s">
+      <c r="A861" s="1" t="s">
         <v>936</v>
       </c>
       <c r="B861" t="s">
@@ -10660,7 +10664,7 @@
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A862" t="s">
+      <c r="A862" s="1" t="s">
         <v>937</v>
       </c>
       <c r="B862" t="s">
@@ -10668,7 +10672,7 @@
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A863" t="s">
+      <c r="A863" s="1" t="s">
         <v>938</v>
       </c>
       <c r="B863" t="s">
@@ -10676,7 +10680,7 @@
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A864" t="s">
+      <c r="A864" s="1" t="s">
         <v>939</v>
       </c>
       <c r="B864" t="s">
@@ -10684,7 +10688,7 @@
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A865" t="s">
+      <c r="A865" s="1" t="s">
         <v>940</v>
       </c>
       <c r="B865" t="s">
@@ -10692,7 +10696,7 @@
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A866" t="s">
+      <c r="A866" s="1" t="s">
         <v>941</v>
       </c>
       <c r="B866" t="s">
@@ -10700,7 +10704,7 @@
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A867" t="s">
+      <c r="A867" s="1" t="s">
         <v>942</v>
       </c>
       <c r="B867" t="s">
@@ -10708,7 +10712,7 @@
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A868" t="s">
+      <c r="A868" s="1" t="s">
         <v>943</v>
       </c>
       <c r="B868" t="s">
@@ -10716,7 +10720,7 @@
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A869" t="s">
+      <c r="A869" s="1" t="s">
         <v>944</v>
       </c>
       <c r="B869" t="s">
@@ -10724,7 +10728,7 @@
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A870" t="s">
+      <c r="A870" s="1" t="s">
         <v>945</v>
       </c>
       <c r="B870" t="s">
@@ -10732,7 +10736,7 @@
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A871" t="s">
+      <c r="A871" s="1" t="s">
         <v>946</v>
       </c>
       <c r="B871" t="s">
@@ -10740,7 +10744,7 @@
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A872" t="s">
+      <c r="A872" s="1" t="s">
         <v>947</v>
       </c>
       <c r="B872" t="s">
@@ -10748,7 +10752,7 @@
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A873" t="s">
+      <c r="A873" s="1" t="s">
         <v>948</v>
       </c>
       <c r="B873" t="s">
@@ -10756,7 +10760,7 @@
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A874" t="s">
+      <c r="A874" s="1" t="s">
         <v>949</v>
       </c>
       <c r="B874" t="s">
@@ -10764,7 +10768,7 @@
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A875" t="s">
+      <c r="A875" s="1" t="s">
         <v>950</v>
       </c>
       <c r="B875" t="s">
@@ -10772,7 +10776,7 @@
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A876" t="s">
+      <c r="A876" s="1" t="s">
         <v>951</v>
       </c>
       <c r="B876" t="s">
@@ -10780,7 +10784,7 @@
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A877" t="s">
+      <c r="A877" s="1" t="s">
         <v>952</v>
       </c>
       <c r="B877" t="s">
@@ -10788,7 +10792,7 @@
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A878" t="s">
+      <c r="A878" s="1" t="s">
         <v>953</v>
       </c>
       <c r="B878" t="s">
@@ -10796,7 +10800,7 @@
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A879" t="s">
+      <c r="A879" s="1" t="s">
         <v>954</v>
       </c>
       <c r="B879" t="s">
@@ -10804,7 +10808,7 @@
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A880" t="s">
+      <c r="A880" s="1" t="s">
         <v>955</v>
       </c>
       <c r="B880" t="s">
@@ -10812,7 +10816,7 @@
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A881" t="s">
+      <c r="A881" s="1" t="s">
         <v>956</v>
       </c>
       <c r="B881" t="s">
@@ -10820,7 +10824,7 @@
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A882" t="s">
+      <c r="A882" s="1" t="s">
         <v>957</v>
       </c>
       <c r="B882" t="s">
@@ -10828,7 +10832,7 @@
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A883" t="s">
+      <c r="A883" s="1" t="s">
         <v>958</v>
       </c>
       <c r="B883" t="s">
@@ -10836,7 +10840,7 @@
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A884" t="s">
+      <c r="A884" s="1" t="s">
         <v>959</v>
       </c>
       <c r="B884" t="s">
@@ -10844,7 +10848,7 @@
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A885" t="s">
+      <c r="A885" s="1" t="s">
         <v>960</v>
       </c>
       <c r="B885" t="s">
@@ -10852,7 +10856,7 @@
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A886" t="s">
+      <c r="A886" s="1" t="s">
         <v>961</v>
       </c>
       <c r="B886" t="s">
@@ -10860,7 +10864,7 @@
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A887" t="s">
+      <c r="A887" s="1" t="s">
         <v>962</v>
       </c>
       <c r="B887" t="s">
@@ -10868,7 +10872,7 @@
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A888" t="s">
+      <c r="A888" s="1" t="s">
         <v>963</v>
       </c>
       <c r="B888" t="s">
@@ -10876,7 +10880,7 @@
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A889" t="s">
+      <c r="A889" s="1" t="s">
         <v>964</v>
       </c>
       <c r="B889" t="s">
@@ -10884,7 +10888,7 @@
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A890" t="s">
+      <c r="A890" s="1" t="s">
         <v>965</v>
       </c>
       <c r="B890" t="s">
@@ -10892,7 +10896,7 @@
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A891" t="s">
+      <c r="A891" s="1" t="s">
         <v>966</v>
       </c>
       <c r="B891" t="s">
@@ -10900,7 +10904,7 @@
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A892" t="s">
+      <c r="A892" s="1" t="s">
         <v>967</v>
       </c>
       <c r="B892" t="s">
@@ -10908,7 +10912,7 @@
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A893" t="s">
+      <c r="A893" s="1" t="s">
         <v>968</v>
       </c>
       <c r="B893" t="s">
@@ -10916,7 +10920,7 @@
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A894" t="s">
+      <c r="A894" s="1" t="s">
         <v>969</v>
       </c>
       <c r="B894" t="s">
@@ -10924,7 +10928,7 @@
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A895" t="s">
+      <c r="A895" s="1" t="s">
         <v>970</v>
       </c>
       <c r="B895" t="s">
@@ -10932,7 +10936,7 @@
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A896" t="s">
+      <c r="A896" s="1" t="s">
         <v>971</v>
       </c>
       <c r="B896" t="s">
@@ -10940,7 +10944,7 @@
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A897" t="s">
+      <c r="A897" s="1" t="s">
         <v>972</v>
       </c>
       <c r="B897" t="s">
@@ -10948,7 +10952,7 @@
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A898" t="s">
+      <c r="A898" s="1" t="s">
         <v>973</v>
       </c>
       <c r="B898" t="s">
@@ -10956,7 +10960,7 @@
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A899" t="s">
+      <c r="A899" s="1" t="s">
         <v>974</v>
       </c>
       <c r="B899" t="s">
@@ -10964,7 +10968,7 @@
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A900" t="s">
+      <c r="A900" s="1" t="s">
         <v>975</v>
       </c>
       <c r="B900" t="s">
@@ -10972,7 +10976,7 @@
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A901" t="s">
+      <c r="A901" s="1" t="s">
         <v>976</v>
       </c>
       <c r="B901" t="s">
@@ -10980,7 +10984,7 @@
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A902" t="s">
+      <c r="A902" s="1" t="s">
         <v>977</v>
       </c>
       <c r="B902" t="s">
@@ -10988,7 +10992,7 @@
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A903" t="s">
+      <c r="A903" s="1" t="s">
         <v>978</v>
       </c>
       <c r="B903" t="s">
@@ -10996,7 +11000,7 @@
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A904" t="s">
+      <c r="A904" s="1" t="s">
         <v>979</v>
       </c>
       <c r="B904" t="s">
@@ -11004,7 +11008,7 @@
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A905" t="s">
+      <c r="A905" s="1" t="s">
         <v>980</v>
       </c>
       <c r="B905" t="s">
@@ -11012,7 +11016,7 @@
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A906" t="s">
+      <c r="A906" s="1" t="s">
         <v>981</v>
       </c>
       <c r="B906" t="s">
@@ -11020,7 +11024,7 @@
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A907" t="s">
+      <c r="A907" s="1" t="s">
         <v>982</v>
       </c>
       <c r="B907" t="s">
@@ -11028,7 +11032,7 @@
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A908" t="s">
+      <c r="A908" s="1" t="s">
         <v>983</v>
       </c>
       <c r="B908" t="s">
@@ -11036,7 +11040,7 @@
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A909" t="s">
+      <c r="A909" s="1" t="s">
         <v>984</v>
       </c>
       <c r="B909" t="s">
@@ -11044,7 +11048,7 @@
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A910" t="s">
+      <c r="A910" s="1" t="s">
         <v>985</v>
       </c>
       <c r="B910" t="s">
@@ -11052,7 +11056,7 @@
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A911" t="s">
+      <c r="A911" s="1" t="s">
         <v>986</v>
       </c>
       <c r="B911" t="s">
@@ -11060,7 +11064,7 @@
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A912" t="s">
+      <c r="A912" s="1" t="s">
         <v>987</v>
       </c>
       <c r="B912" t="s">
@@ -11068,7 +11072,7 @@
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A913" t="s">
+      <c r="A913" s="1" t="s">
         <v>988</v>
       </c>
       <c r="B913" t="s">
@@ -11076,7 +11080,7 @@
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A914" t="s">
+      <c r="A914" s="1" t="s">
         <v>989</v>
       </c>
       <c r="B914" t="s">
@@ -11084,7 +11088,7 @@
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A915" t="s">
+      <c r="A915" s="1" t="s">
         <v>990</v>
       </c>
       <c r="B915" t="s">
@@ -11092,7 +11096,7 @@
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A916" t="s">
+      <c r="A916" s="1" t="s">
         <v>991</v>
       </c>
       <c r="B916" t="s">
@@ -11100,7 +11104,7 @@
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A917" t="s">
+      <c r="A917" s="1" t="s">
         <v>992</v>
       </c>
       <c r="B917" t="s">
@@ -11108,7 +11112,7 @@
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A918" t="s">
+      <c r="A918" s="1" t="s">
         <v>993</v>
       </c>
       <c r="B918" t="s">
@@ -11116,7 +11120,7 @@
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A919" t="s">
+      <c r="A919" s="1" t="s">
         <v>994</v>
       </c>
       <c r="B919" t="s">
@@ -11124,7 +11128,7 @@
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A920" t="s">
+      <c r="A920" s="1" t="s">
         <v>995</v>
       </c>
       <c r="B920" t="s">
@@ -11132,7 +11136,7 @@
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A921" t="s">
+      <c r="A921" s="1" t="s">
         <v>996</v>
       </c>
       <c r="B921" t="s">
@@ -11140,7 +11144,7 @@
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A922" t="s">
+      <c r="A922" s="1" t="s">
         <v>997</v>
       </c>
       <c r="B922" t="s">
@@ -11148,7 +11152,7 @@
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A923" t="s">
+      <c r="A923" s="1" t="s">
         <v>998</v>
       </c>
       <c r="B923" t="s">
@@ -11156,7 +11160,7 @@
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A924" t="s">
+      <c r="A924" s="1" t="s">
         <v>999</v>
       </c>
       <c r="B924" t="s">
@@ -11164,7 +11168,7 @@
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A925" t="s">
+      <c r="A925" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="B925" t="s">
@@ -11172,7 +11176,7 @@
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A926" t="s">
+      <c r="A926" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B926" t="s">
@@ -11180,7 +11184,7 @@
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A927" t="s">
+      <c r="A927" s="1" t="s">
         <v>1002</v>
       </c>
       <c r="B927" t="s">
@@ -11188,7 +11192,7 @@
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A928" t="s">
+      <c r="A928" s="1" t="s">
         <v>1003</v>
       </c>
       <c r="B928" t="s">
@@ -11196,7 +11200,7 @@
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A929" t="s">
+      <c r="A929" s="1" t="s">
         <v>1004</v>
       </c>
       <c r="B929" t="s">
@@ -11204,7 +11208,7 @@
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A930" t="s">
+      <c r="A930" s="1" t="s">
         <v>1005</v>
       </c>
       <c r="B930" t="s">
@@ -11212,7 +11216,7 @@
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A931" t="s">
+      <c r="A931" s="1" t="s">
         <v>1006</v>
       </c>
       <c r="B931" t="s">
@@ -11220,7 +11224,7 @@
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A932" t="s">
+      <c r="A932" s="1" t="s">
         <v>1007</v>
       </c>
       <c r="B932" t="s">
@@ -11228,7 +11232,7 @@
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A933" t="s">
+      <c r="A933" s="1" t="s">
         <v>1008</v>
       </c>
       <c r="B933" t="s">
@@ -11236,7 +11240,7 @@
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A934" t="s">
+      <c r="A934" s="1" t="s">
         <v>1009</v>
       </c>
       <c r="B934" t="s">
@@ -11244,7 +11248,7 @@
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A935" t="s">
+      <c r="A935" s="1" t="s">
         <v>1010</v>
       </c>
       <c r="B935" t="s">
@@ -11252,7 +11256,7 @@
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A936" t="s">
+      <c r="A936" s="1" t="s">
         <v>1011</v>
       </c>
       <c r="B936" t="s">
@@ -11260,7 +11264,7 @@
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A937" t="s">
+      <c r="A937" s="1" t="s">
         <v>1012</v>
       </c>
       <c r="B937" t="s">
@@ -11268,7 +11272,7 @@
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A938" t="s">
+      <c r="A938" s="1" t="s">
         <v>1013</v>
       </c>
       <c r="B938" t="s">
@@ -11276,7 +11280,7 @@
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A939" t="s">
+      <c r="A939" s="1" t="s">
         <v>1014</v>
       </c>
       <c r="B939" t="s">
@@ -11284,7 +11288,7 @@
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A940" t="s">
+      <c r="A940" s="1" t="s">
         <v>1015</v>
       </c>
       <c r="B940" t="s">
@@ -11292,7 +11296,7 @@
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A941" t="s">
+      <c r="A941" s="1" t="s">
         <v>1016</v>
       </c>
       <c r="B941" t="s">
@@ -11300,7 +11304,7 @@
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A942" t="s">
+      <c r="A942" s="1" t="s">
         <v>1017</v>
       </c>
       <c r="B942" t="s">
@@ -11308,7 +11312,7 @@
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A943" t="s">
+      <c r="A943" s="1" t="s">
         <v>1018</v>
       </c>
       <c r="B943" t="s">
@@ -11316,7 +11320,7 @@
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A944" t="s">
+      <c r="A944" s="1" t="s">
         <v>1019</v>
       </c>
       <c r="B944" t="s">
@@ -11324,7 +11328,7 @@
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A945" t="s">
+      <c r="A945" s="1" t="s">
         <v>1020</v>
       </c>
       <c r="B945" t="s">
@@ -11332,7 +11336,7 @@
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A946" t="s">
+      <c r="A946" s="1" t="s">
         <v>1021</v>
       </c>
       <c r="B946" t="s">
@@ -11340,7 +11344,7 @@
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A947" t="s">
+      <c r="A947" s="1" t="s">
         <v>1022</v>
       </c>
       <c r="B947" t="s">
@@ -11348,7 +11352,7 @@
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A948" t="s">
+      <c r="A948" s="1" t="s">
         <v>1023</v>
       </c>
       <c r="B948" t="s">
@@ -11356,7 +11360,7 @@
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A949" t="s">
+      <c r="A949" s="1" t="s">
         <v>1024</v>
       </c>
       <c r="B949" t="s">
@@ -11364,7 +11368,7 @@
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A950" t="s">
+      <c r="A950" s="1" t="s">
         <v>1025</v>
       </c>
       <c r="B950" t="s">
@@ -11372,7 +11376,7 @@
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A951" t="s">
+      <c r="A951" s="1" t="s">
         <v>1026</v>
       </c>
       <c r="B951" t="s">
@@ -11380,7 +11384,7 @@
       </c>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A952" t="s">
+      <c r="A952" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="B952" t="s">
@@ -11388,7 +11392,7 @@
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A953" t="s">
+      <c r="A953" s="1" t="s">
         <v>1028</v>
       </c>
       <c r="B953" t="s">
@@ -11396,7 +11400,7 @@
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A954" t="s">
+      <c r="A954" s="1" t="s">
         <v>1029</v>
       </c>
       <c r="B954" t="s">
@@ -11404,7 +11408,7 @@
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A955" t="s">
+      <c r="A955" s="1" t="s">
         <v>1030</v>
       </c>
       <c r="B955" t="s">
@@ -11412,7 +11416,7 @@
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A956" t="s">
+      <c r="A956" s="1" t="s">
         <v>1031</v>
       </c>
       <c r="B956" t="s">
@@ -11420,7 +11424,7 @@
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A957" t="s">
+      <c r="A957" s="1" t="s">
         <v>1032</v>
       </c>
       <c r="B957" t="s">
@@ -11428,7 +11432,7 @@
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A958" t="s">
+      <c r="A958" s="1" t="s">
         <v>1033</v>
       </c>
       <c r="B958" t="s">
@@ -11436,7 +11440,7 @@
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A959" t="s">
+      <c r="A959" s="1" t="s">
         <v>1034</v>
       </c>
       <c r="B959" t="s">
@@ -11444,7 +11448,7 @@
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A960" t="s">
+      <c r="A960" s="1" t="s">
         <v>1035</v>
       </c>
       <c r="B960" t="s">
@@ -11452,7 +11456,7 @@
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A961" t="s">
+      <c r="A961" s="1" t="s">
         <v>1036</v>
       </c>
       <c r="B961" t="s">
@@ -11460,7 +11464,7 @@
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A962" t="s">
+      <c r="A962" s="1" t="s">
         <v>1037</v>
       </c>
       <c r="B962" t="s">
@@ -11468,7 +11472,7 @@
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A963" t="s">
+      <c r="A963" s="1" t="s">
         <v>1038</v>
       </c>
       <c r="B963" t="s">
@@ -11476,7 +11480,7 @@
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A964" t="s">
+      <c r="A964" s="1" t="s">
         <v>1039</v>
       </c>
       <c r="B964" t="s">
@@ -11484,7 +11488,7 @@
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A965" t="s">
+      <c r="A965" s="1" t="s">
         <v>1040</v>
       </c>
       <c r="B965" t="s">
@@ -11492,7 +11496,7 @@
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A966" t="s">
+      <c r="A966" s="1" t="s">
         <v>1041</v>
       </c>
       <c r="B966" t="s">
@@ -11500,7 +11504,7 @@
       </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A967" t="s">
+      <c r="A967" s="1" t="s">
         <v>1042</v>
       </c>
       <c r="B967" t="s">
@@ -11508,7 +11512,7 @@
       </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A968" t="s">
+      <c r="A968" s="1" t="s">
         <v>1043</v>
       </c>
       <c r="B968" t="s">
@@ -11516,7 +11520,7 @@
       </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A969" t="s">
+      <c r="A969" s="1" t="s">
         <v>1044</v>
       </c>
       <c r="B969" t="s">
@@ -11524,7 +11528,7 @@
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A970" t="s">
+      <c r="A970" s="1" t="s">
         <v>1045</v>
       </c>
       <c r="B970" t="s">
@@ -11532,7 +11536,7 @@
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A971" t="s">
+      <c r="A971" s="1" t="s">
         <v>1046</v>
       </c>
       <c r="B971" t="s">
@@ -11540,7 +11544,7 @@
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A972" t="s">
+      <c r="A972" s="1" t="s">
         <v>1047</v>
       </c>
       <c r="B972" t="s">
@@ -11548,7 +11552,7 @@
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A973" t="s">
+      <c r="A973" s="1" t="s">
         <v>1048</v>
       </c>
       <c r="B973" t="s">
@@ -11556,7 +11560,7 @@
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A974" t="s">
+      <c r="A974" s="1" t="s">
         <v>1049</v>
       </c>
       <c r="B974" t="s">
@@ -11564,7 +11568,7 @@
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A975" t="s">
+      <c r="A975" s="1" t="s">
         <v>1050</v>
       </c>
       <c r="B975" t="s">
@@ -11572,7 +11576,7 @@
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A976" t="s">
+      <c r="A976" s="1" t="s">
         <v>1051</v>
       </c>
       <c r="B976" t="s">
@@ -11580,7 +11584,7 @@
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A977" t="s">
+      <c r="A977" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="B977" t="s">
@@ -11588,7 +11592,7 @@
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A978" t="s">
+      <c r="A978" s="1" t="s">
         <v>1053</v>
       </c>
       <c r="B978" t="s">
@@ -11596,7 +11600,7 @@
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A979" t="s">
+      <c r="A979" s="1" t="s">
         <v>1054</v>
       </c>
       <c r="B979" t="s">
@@ -11604,7 +11608,7 @@
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A980" t="s">
+      <c r="A980" s="1" t="s">
         <v>1055</v>
       </c>
       <c r="B980" t="s">
@@ -11612,7 +11616,7 @@
       </c>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A981" t="s">
+      <c r="A981" s="1" t="s">
         <v>1056</v>
       </c>
       <c r="B981" t="s">
@@ -11620,7 +11624,7 @@
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A982" t="s">
+      <c r="A982" s="1" t="s">
         <v>1057</v>
       </c>
       <c r="B982" t="s">
@@ -11628,7 +11632,7 @@
       </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A983" t="s">
+      <c r="A983" s="1" t="s">
         <v>1058</v>
       </c>
       <c r="B983" t="s">
@@ -11636,7 +11640,7 @@
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A984" t="s">
+      <c r="A984" s="1" t="s">
         <v>1059</v>
       </c>
       <c r="B984" t="s">
@@ -11644,7 +11648,7 @@
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A985" t="s">
+      <c r="A985" s="1" t="s">
         <v>1060</v>
       </c>
       <c r="B985" t="s">
@@ -11652,7 +11656,7 @@
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A986" t="s">
+      <c r="A986" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="B986" t="s">
@@ -11660,7 +11664,7 @@
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A987" t="s">
+      <c r="A987" s="1" t="s">
         <v>1062</v>
       </c>
       <c r="B987" t="s">
@@ -11668,7 +11672,7 @@
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A988" t="s">
+      <c r="A988" s="1" t="s">
         <v>1063</v>
       </c>
       <c r="B988" t="s">
@@ -11676,7 +11680,7 @@
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A989" t="s">
+      <c r="A989" s="1" t="s">
         <v>1064</v>
       </c>
       <c r="B989" t="s">
@@ -11684,7 +11688,7 @@
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A990" t="s">
+      <c r="A990" s="1" t="s">
         <v>1065</v>
       </c>
       <c r="B990" t="s">
@@ -11692,7 +11696,7 @@
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A991" t="s">
+      <c r="A991" s="1" t="s">
         <v>1066</v>
       </c>
       <c r="B991" t="s">
@@ -11700,7 +11704,7 @@
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A992" t="s">
+      <c r="A992" s="1" t="s">
         <v>1067</v>
       </c>
       <c r="B992" t="s">
@@ -11708,7 +11712,7 @@
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A993" t="s">
+      <c r="A993" s="1" t="s">
         <v>1068</v>
       </c>
       <c r="B993" t="s">
@@ -11716,7 +11720,7 @@
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A994" t="s">
+      <c r="A994" s="1" t="s">
         <v>1069</v>
       </c>
       <c r="B994" t="s">
@@ -11724,7 +11728,7 @@
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A995" t="s">
+      <c r="A995" s="1" t="s">
         <v>1070</v>
       </c>
       <c r="B995" t="s">
@@ -11732,7 +11736,7 @@
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A996" t="s">
+      <c r="A996" s="1" t="s">
         <v>1071</v>
       </c>
       <c r="B996" t="s">
@@ -11740,7 +11744,7 @@
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A997" t="s">
+      <c r="A997" s="1" t="s">
         <v>1072</v>
       </c>
       <c r="B997" t="s">
@@ -11748,7 +11752,7 @@
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A998" t="s">
+      <c r="A998" s="1" t="s">
         <v>1073</v>
       </c>
       <c r="B998" t="s">
@@ -11756,7 +11760,7 @@
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A999" t="s">
+      <c r="A999" s="1" t="s">
         <v>1074</v>
       </c>
       <c r="B999" t="s">
@@ -11764,7 +11768,7 @@
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1000" t="s">
+      <c r="A1000" s="1" t="s">
         <v>1075</v>
       </c>
       <c r="B1000" t="s">
@@ -11772,7 +11776,7 @@
       </c>
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1001" t="s">
+      <c r="A1001" s="1" t="s">
         <v>1076</v>
       </c>
       <c r="B1001" t="s">
@@ -11780,7 +11784,7 @@
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1002" t="s">
+      <c r="A1002" s="1" t="s">
         <v>1077</v>
       </c>
       <c r="B1002" t="s">
@@ -11788,7 +11792,7 @@
       </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1003" t="s">
+      <c r="A1003" s="1" t="s">
         <v>1078</v>
       </c>
       <c r="B1003" t="s">
@@ -11796,7 +11800,7 @@
       </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1004" t="s">
+      <c r="A1004" s="1" t="s">
         <v>1079</v>
       </c>
       <c r="B1004" t="s">
@@ -11804,7 +11808,7 @@
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1005" t="s">
+      <c r="A1005" s="1" t="s">
         <v>1080</v>
       </c>
       <c r="B1005" t="s">
@@ -11812,7 +11816,7 @@
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1006" t="s">
+      <c r="A1006" s="1" t="s">
         <v>1081</v>
       </c>
       <c r="B1006" t="s">
@@ -11820,7 +11824,7 @@
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1007" t="s">
+      <c r="A1007" s="1" t="s">
         <v>1082</v>
       </c>
       <c r="B1007" t="s">
@@ -11828,7 +11832,7 @@
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1008" t="s">
+      <c r="A1008" s="1" t="s">
         <v>1083</v>
       </c>
       <c r="B1008" t="s">
@@ -11836,7 +11840,7 @@
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1009" t="s">
+      <c r="A1009" s="1" t="s">
         <v>1084</v>
       </c>
       <c r="B1009" t="s">
@@ -11844,7 +11848,7 @@
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1010" t="s">
+      <c r="A1010" s="1" t="s">
         <v>1085</v>
       </c>
       <c r="B1010" t="s">
@@ -11852,7 +11856,7 @@
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1011" t="s">
+      <c r="A1011" s="1" t="s">
         <v>1086</v>
       </c>
       <c r="B1011" t="s">
@@ -11860,7 +11864,7 @@
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1012" t="s">
+      <c r="A1012" s="1" t="s">
         <v>1087</v>
       </c>
       <c r="B1012" t="s">
@@ -11868,7 +11872,7 @@
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1013" t="s">
+      <c r="A1013" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="B1013" t="s">
@@ -11876,7 +11880,7 @@
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1014" t="s">
+      <c r="A1014" s="1" t="s">
         <v>1089</v>
       </c>
       <c r="B1014" t="s">
@@ -11884,7 +11888,7 @@
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1015" t="s">
+      <c r="A1015" s="1" t="s">
         <v>1090</v>
       </c>
       <c r="B1015" t="s">
@@ -11892,7 +11896,7 @@
       </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1016" t="s">
+      <c r="A1016" s="1" t="s">
         <v>1091</v>
       </c>
       <c r="B1016" t="s">
@@ -11900,7 +11904,7 @@
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1017" t="s">
+      <c r="A1017" s="1" t="s">
         <v>1092</v>
       </c>
       <c r="B1017" t="s">
@@ -11908,7 +11912,7 @@
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1018" t="s">
+      <c r="A1018" s="1" t="s">
         <v>1093</v>
       </c>
       <c r="B1018" t="s">
@@ -11916,7 +11920,7 @@
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1019" t="s">
+      <c r="A1019" s="1" t="s">
         <v>1094</v>
       </c>
       <c r="B1019" t="s">
@@ -11924,7 +11928,7 @@
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1020" t="s">
+      <c r="A1020" s="1" t="s">
         <v>1095</v>
       </c>
       <c r="B1020" t="s">
@@ -11932,7 +11936,7 @@
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1021" t="s">
+      <c r="A1021" s="1" t="s">
         <v>1096</v>
       </c>
       <c r="B1021" t="s">
@@ -11940,7 +11944,7 @@
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1022" t="s">
+      <c r="A1022" s="1" t="s">
         <v>1097</v>
       </c>
       <c r="B1022" t="s">
@@ -11948,7 +11952,7 @@
       </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1023" t="s">
+      <c r="A1023" s="1" t="s">
         <v>1098</v>
       </c>
       <c r="B1023" t="s">
@@ -11956,7 +11960,7 @@
       </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1024" t="s">
+      <c r="A1024" s="1" t="s">
         <v>1099</v>
       </c>
       <c r="B1024" t="s">
@@ -11964,7 +11968,7 @@
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1025" t="s">
+      <c r="A1025" s="1" t="s">
         <v>1100</v>
       </c>
       <c r="B1025" t="s">
@@ -11972,7 +11976,7 @@
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1026" t="s">
+      <c r="A1026" s="1" t="s">
         <v>1101</v>
       </c>
       <c r="B1026" t="s">
@@ -11980,7 +11984,7 @@
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1027" t="s">
+      <c r="A1027" s="1" t="s">
         <v>1102</v>
       </c>
       <c r="B1027" t="s">
@@ -11988,7 +11992,7 @@
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1028" t="s">
+      <c r="A1028" s="1" t="s">
         <v>1103</v>
       </c>
       <c r="B1028" t="s">
@@ -11996,7 +12000,7 @@
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1029" t="s">
+      <c r="A1029" s="1" t="s">
         <v>1104</v>
       </c>
       <c r="B1029" t="s">
@@ -12004,7 +12008,7 @@
       </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1030" t="s">
+      <c r="A1030" s="1" t="s">
         <v>1105</v>
       </c>
       <c r="B1030" t="s">
@@ -12012,7 +12016,7 @@
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1031" t="s">
+      <c r="A1031" s="1" t="s">
         <v>1106</v>
       </c>
       <c r="B1031" t="s">
@@ -12020,7 +12024,7 @@
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1032" t="s">
+      <c r="A1032" s="1" t="s">
         <v>1107</v>
       </c>
       <c r="B1032" t="s">
@@ -12028,7 +12032,7 @@
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1033" t="s">
+      <c r="A1033" s="1" t="s">
         <v>1108</v>
       </c>
       <c r="B1033" t="s">
@@ -12036,7 +12040,7 @@
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1034" t="s">
+      <c r="A1034" s="1" t="s">
         <v>1109</v>
       </c>
       <c r="B1034" t="s">
@@ -12044,7 +12048,7 @@
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1035" t="s">
+      <c r="A1035" s="1" t="s">
         <v>1110</v>
       </c>
       <c r="B1035" t="s">
@@ -12052,7 +12056,7 @@
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1036" t="s">
+      <c r="A1036" s="1" t="s">
         <v>1111</v>
       </c>
       <c r="B1036" t="s">
@@ -12060,7 +12064,7 @@
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1037" t="s">
+      <c r="A1037" s="1" t="s">
         <v>1112</v>
       </c>
       <c r="B1037" t="s">
@@ -12068,7 +12072,7 @@
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1038" t="s">
+      <c r="A1038" s="1" t="s">
         <v>1113</v>
       </c>
       <c r="B1038" t="s">
@@ -12076,7 +12080,7 @@
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1039" t="s">
+      <c r="A1039" s="1" t="s">
         <v>1114</v>
       </c>
       <c r="B1039" t="s">
@@ -12084,7 +12088,7 @@
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1040" t="s">
+      <c r="A1040" s="1" t="s">
         <v>1115</v>
       </c>
       <c r="B1040" t="s">
@@ -12092,7 +12096,7 @@
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1041" t="s">
+      <c r="A1041" s="1" t="s">
         <v>1116</v>
       </c>
       <c r="B1041" t="s">
@@ -12100,7 +12104,7 @@
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1042" t="s">
+      <c r="A1042" s="1" t="s">
         <v>1117</v>
       </c>
       <c r="B1042" t="s">
@@ -12108,7 +12112,7 @@
       </c>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1043" t="s">
+      <c r="A1043" s="1" t="s">
         <v>1118</v>
       </c>
       <c r="B1043" t="s">
@@ -12116,7 +12120,7 @@
       </c>
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1044" t="s">
+      <c r="A1044" s="1" t="s">
         <v>1119</v>
       </c>
       <c r="B1044" t="s">
@@ -12124,7 +12128,7 @@
       </c>
     </row>
     <row r="1045" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1045" t="s">
+      <c r="A1045" s="1" t="s">
         <v>1120</v>
       </c>
       <c r="B1045" t="s">
@@ -12132,7 +12136,7 @@
       </c>
     </row>
     <row r="1046" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1046" t="s">
+      <c r="A1046" s="1" t="s">
         <v>1121</v>
       </c>
       <c r="B1046" t="s">
@@ -12140,7 +12144,7 @@
       </c>
     </row>
     <row r="1047" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1047" t="s">
+      <c r="A1047" s="1" t="s">
         <v>1122</v>
       </c>
       <c r="B1047" t="s">
@@ -12148,7 +12152,7 @@
       </c>
     </row>
     <row r="1048" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1048" t="s">
+      <c r="A1048" s="1" t="s">
         <v>1123</v>
       </c>
       <c r="B1048" t="s">
@@ -12156,7 +12160,7 @@
       </c>
     </row>
     <row r="1049" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1049" t="s">
+      <c r="A1049" s="1" t="s">
         <v>1124</v>
       </c>
       <c r="B1049" t="s">
@@ -12164,7 +12168,7 @@
       </c>
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1050" t="s">
+      <c r="A1050" s="1" t="s">
         <v>1125</v>
       </c>
       <c r="B1050" t="s">
@@ -12172,7 +12176,7 @@
       </c>
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1051" t="s">
+      <c r="A1051" s="1" t="s">
         <v>1126</v>
       </c>
       <c r="B1051" t="s">
@@ -12180,7 +12184,7 @@
       </c>
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1052" t="s">
+      <c r="A1052" s="1" t="s">
         <v>1127</v>
       </c>
       <c r="B1052" t="s">
@@ -12188,7 +12192,7 @@
       </c>
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1053" t="s">
+      <c r="A1053" s="1" t="s">
         <v>1128</v>
       </c>
       <c r="B1053" t="s">
@@ -12196,7 +12200,7 @@
       </c>
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1054" t="s">
+      <c r="A1054" s="1" t="s">
         <v>1129</v>
       </c>
       <c r="B1054" t="s">
@@ -12204,7 +12208,7 @@
       </c>
     </row>
     <row r="1055" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1055" t="s">
+      <c r="A1055" s="1" t="s">
         <v>1130</v>
       </c>
       <c r="B1055" t="s">
@@ -12212,7 +12216,7 @@
       </c>
     </row>
     <row r="1056" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1056" t="s">
+      <c r="A1056" s="1" t="s">
         <v>1131</v>
       </c>
       <c r="B1056" t="s">
@@ -12220,7 +12224,7 @@
       </c>
     </row>
     <row r="1057" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1057" t="s">
+      <c r="A1057" s="1" t="s">
         <v>1132</v>
       </c>
       <c r="B1057" t="s">
@@ -12228,7 +12232,7 @@
       </c>
     </row>
     <row r="1058" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1058" t="s">
+      <c r="A1058" s="1" t="s">
         <v>1133</v>
       </c>
       <c r="B1058" t="s">
@@ -12236,7 +12240,7 @@
       </c>
     </row>
     <row r="1059" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1059" t="s">
+      <c r="A1059" s="1" t="s">
         <v>1134</v>
       </c>
       <c r="B1059" t="s">
@@ -12244,7 +12248,7 @@
       </c>
     </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1060" t="s">
+      <c r="A1060" s="1" t="s">
         <v>1135</v>
       </c>
       <c r="B1060" t="s">
@@ -12252,7 +12256,7 @@
       </c>
     </row>
     <row r="1061" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1061" t="s">
+      <c r="A1061" s="1" t="s">
         <v>1136</v>
       </c>
       <c r="B1061" t="s">
@@ -12261,5 +12265,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>